--- a/data/.FilteredData.xlsx
+++ b/data/.FilteredData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM225"/>
+  <dimension ref="A1:AM235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3318,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.15929484233714</v>
+        <v>60.1619263869234</v>
       </c>
       <c r="K24" t="n">
-        <v>60.10998018313479</v>
+        <v>60.11589605766247</v>
       </c>
       <c r="L24" t="n">
-        <v>60.09537865619851</v>
+        <v>60.09935557520321</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.16271768622061</v>
+        <v>60.16923741038976</v>
       </c>
       <c r="K25" t="n">
-        <v>60.11086837972379</v>
+        <v>60.11535087613579</v>
       </c>
       <c r="L25" t="n">
-        <v>60.09241023907401</v>
+        <v>60.10637775109005</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>120.1613620219751</v>
+        <v>120.1593746802656</v>
       </c>
       <c r="K26" t="n">
-        <v>120.1162806165465</v>
+        <v>120.1100233849944</v>
       </c>
       <c r="L26" t="n">
-        <v>120.0985710348444</v>
+        <v>120.0983975245931</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>120.1638974483761</v>
+        <v>120.1572144276088</v>
       </c>
       <c r="K27" t="n">
-        <v>120.1154274848975</v>
+        <v>120.1116222630344</v>
       </c>
       <c r="L27" t="n">
-        <v>120.0998028339345</v>
+        <v>120.0938108716673</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>179.8381457072127</v>
+        <v>179.8519150290359</v>
       </c>
       <c r="K28" t="n">
-        <v>179.8828584816445</v>
+        <v>179.8880164108033</v>
       </c>
       <c r="L28" t="n">
-        <v>179.8934236740815</v>
+        <v>179.8952881274137</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3923,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>179.8393672673087</v>
+        <v>179.8492782927315</v>
       </c>
       <c r="K29" t="n">
-        <v>179.8765810899665</v>
+        <v>179.8880164108033</v>
       </c>
       <c r="L29" t="n">
-        <v>179.901092137053</v>
+        <v>179.8934236740815</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4044,13 +4044,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>119.8493691362507</v>
+        <v>119.8515134482819</v>
       </c>
       <c r="K30" t="n">
-        <v>119.8870935562313</v>
+        <v>119.8866521133483</v>
       </c>
       <c r="L30" t="n">
-        <v>119.8984990562603</v>
+        <v>119.8992928240167</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8458746537056</v>
+        <v>119.8483868374013</v>
       </c>
       <c r="K31" t="n">
-        <v>119.8893919985158</v>
+        <v>119.8855551230312</v>
       </c>
       <c r="L31" t="n">
-        <v>119.8983866999696</v>
+        <v>119.9011229421326</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -4286,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>59.84145828165611</v>
+        <v>59.84552292887135</v>
       </c>
       <c r="K32" t="n">
-        <v>59.87564539926584</v>
+        <v>59.88217604427935</v>
       </c>
       <c r="L32" t="n">
-        <v>59.89364850540403</v>
+        <v>59.89361671473075</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P100V1to3</t>
+          <t>P50V1to3</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -4407,13 +4407,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>59.84465355639758</v>
+        <v>59.84659306815455</v>
       </c>
       <c r="K33" t="n">
-        <v>59.88338024832888</v>
+        <v>59.88585948469682</v>
       </c>
       <c r="L33" t="n">
-        <v>59.89168607446314</v>
+        <v>59.89400350056094</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P150V1to3</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4528,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.15767453202896</v>
+        <v>60.15929484233714</v>
       </c>
       <c r="K34" t="n">
-        <v>60.111457202118</v>
+        <v>60.10998018313479</v>
       </c>
       <c r="L34" t="n">
-        <v>60.09474677610706</v>
+        <v>60.09537865619851</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P150V1to3</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4649,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>60.15788524651564</v>
+        <v>60.16271768622061</v>
       </c>
       <c r="K35" t="n">
-        <v>60.10906025689574</v>
+        <v>60.11086837972379</v>
       </c>
       <c r="L35" t="n">
-        <v>60.09071811580258</v>
+        <v>60.09241023907401</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P150V1to3</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4770,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>120.1616264295765</v>
+        <v>120.1613620219751</v>
       </c>
       <c r="K36" t="n">
-        <v>120.1205132652959</v>
+        <v>120.1162806165465</v>
       </c>
       <c r="L36" t="n">
-        <v>120.0994750149356</v>
+        <v>120.0985710348444</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P150V1to3</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4891,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.1637238232654</v>
+        <v>120.1638974483761</v>
       </c>
       <c r="K37" t="n">
-        <v>120.1161501293185</v>
+        <v>120.1154274848975</v>
       </c>
       <c r="L37" t="n">
-        <v>120.1031029390888</v>
+        <v>120.0998028339345</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P150V1to3</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -5012,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>179.8369332977458</v>
+        <v>179.8381457072127</v>
       </c>
       <c r="K38" t="n">
         <v>179.8828584816445</v>
       </c>
       <c r="L38" t="n">
-        <v>179.8880164108033</v>
+        <v>179.8934236740815</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -5133,22 +5133,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>179.8393672673087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>179.8765810899665</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>179.901092137053</v>
       </c>
       <c r="M39" t="n">
-        <v>179.8357298363012</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>179.8781874789221</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>179.8897893506054</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -5254,22 +5254,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>119.8493691362507</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>119.8870935562313</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>119.8984990562603</v>
       </c>
       <c r="M40" t="n">
-        <v>119.8511157627815</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>119.8858075619024</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>119.8936737981395</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -5375,22 +5375,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>119.8458746537056</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>119.8893919985158</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>119.8983866999696</v>
       </c>
       <c r="M41" t="n">
-        <v>119.8552320825568</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>119.887097521296</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>119.8947232933788</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -5496,22 +5496,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>59.84145828165611</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>59.87564539926584</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>59.89364850540403</v>
       </c>
       <c r="M42" t="n">
-        <v>59.84796335958394</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>59.87904491255593</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>59.89206558237274</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V1to3</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -5617,22 +5617,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>59.84465355639758</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>59.88338024832888</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>59.89168607446314</v>
       </c>
       <c r="M43" t="n">
-        <v>59.84721327978653</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>59.88177728920767</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>59.89150062504174</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -5713,11 +5713,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>V4to6</t>
+          <t>P150V1to3</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -5729,22 +5729,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>24.99450684</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>25.0093689</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>25.00200844</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>60.15767453202896</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>60.111457202118</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>60.09474677610706</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -5834,11 +5834,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>V4to6</t>
+          <t>P150V1to3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -5850,22 +5850,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>49.98841095</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.01700211</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.00071335</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.15788524651564</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>60.10906025689574</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>60.09071811580258</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -5955,11 +5955,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>V4to6</t>
+          <t>P150V1to3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>74.98484039</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.02690887</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>75.00113678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>120.1616264295765</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>120.1205132652959</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>120.0994750149356</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -6076,11 +6076,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>V4to6</t>
+          <t>P150V1to3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -6092,22 +6092,22 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>99.98279572</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>100.0363998</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>100.0064316</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>120.1637238232654</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>120.1161501293185</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>120.1031029390888</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -6197,11 +6197,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>V4to6</t>
+          <t>P150V1to3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -6213,22 +6213,22 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>124.9859619</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>125.0477219</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>125.0137405</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>179.8369332977458</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>179.8828584816445</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>179.8880164108033</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -6318,11 +6318,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>V4to6</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>149.9891205</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>150.0606384</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>150.0201721</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -6352,13 +6352,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>179.8357298363012</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>179.8781874789221</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>179.8897893506054</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -6439,11 +6439,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>60.20593240030742</v>
+        <v>119.8511157627815</v>
       </c>
       <c r="N50" t="n">
-        <v>60.16945602612568</v>
+        <v>119.8858075619024</v>
       </c>
       <c r="O50" t="n">
-        <v>60.17606710991969</v>
+        <v>119.8936737981395</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -6560,11 +6560,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -6594,13 +6594,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>60.24819463463712</v>
+        <v>119.8552320825568</v>
       </c>
       <c r="N51" t="n">
-        <v>60.2059264582472</v>
+        <v>119.887097521296</v>
       </c>
       <c r="O51" t="n">
-        <v>60.22736575690966</v>
+        <v>119.8947232933788</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -6681,11 +6681,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>120.1414367408703</v>
+        <v>59.84796335958394</v>
       </c>
       <c r="N52" t="n">
-        <v>120.1429294569268</v>
+        <v>59.87904491255593</v>
       </c>
       <c r="O52" t="n">
-        <v>120.1365989854194</v>
+        <v>59.89206558237274</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -6802,11 +6802,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -6836,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>120.1594813688164</v>
+        <v>59.84721327978653</v>
       </c>
       <c r="N53" t="n">
-        <v>120.1135245244672</v>
+        <v>59.88177728920767</v>
       </c>
       <c r="O53" t="n">
-        <v>120.1293136485987</v>
+        <v>59.89150062504174</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -6923,11 +6923,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>V4to6</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -6939,13 +6939,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>24.99450684</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>25.0093689</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>25.00200844</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -6957,13 +6957,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>179.7761793382941</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>179.8357298363012</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>179.8134583744895</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -7044,11 +7044,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>V4to6</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -7060,13 +7060,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>49.98841095</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>50.01700211</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>50.00071335</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -7078,13 +7078,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>179.8333489834982</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>179.8781874789221</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>179.8644134072302</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -7165,11 +7165,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>V4to6</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -7181,13 +7181,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>74.98484039</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>75.02690887</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>75.00113678</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -7199,13 +7199,13 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>119.7416749793385</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>119.8100675455666</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>119.7710744683387</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -7286,11 +7286,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>V4to6</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -7302,13 +7302,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>99.98279572</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>100.0363998</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>100.0064316</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -7320,13 +7320,13 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>119.7778338877562</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>119.8664277984373</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>119.8137714303737</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -7407,11 +7407,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>V4to6</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -7423,13 +7423,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>124.9859619</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>125.0477219</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>125.0137405</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -7441,13 +7441,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>59.7794910793926</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>59.81331657214167</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>59.82783114768106</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -7528,11 +7528,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P5V4to6</t>
+          <t>V4to6</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -7544,13 +7544,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>149.9891205</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>150.0606384</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>150.0201721</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -7562,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>59.77712785909616</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>59.78116731346624</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>59.7805307722453</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -7683,13 +7683,13 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>60.17674800689618</v>
+        <v>60.20593240030742</v>
       </c>
       <c r="N60" t="n">
-        <v>60.12072127984742</v>
+        <v>60.16945602612568</v>
       </c>
       <c r="O60" t="n">
-        <v>60.12183206553324</v>
+        <v>60.17606710991969</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -7804,13 +7804,13 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>60.17484333288812</v>
+        <v>60.24819463463712</v>
       </c>
       <c r="N61" t="n">
-        <v>60.1200928643812</v>
+        <v>60.2059264582472</v>
       </c>
       <c r="O61" t="n">
-        <v>60.12402981205882</v>
+        <v>60.22736575690966</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -7925,13 +7925,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>120.1774391610244</v>
+        <v>120.1414367408703</v>
       </c>
       <c r="N62" t="n">
-        <v>120.1264114558398</v>
+        <v>120.1429294569268</v>
       </c>
       <c r="O62" t="n">
-        <v>120.1240108020794</v>
+        <v>120.1365989854194</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -8046,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>120.1803468325241</v>
+        <v>120.1594813688164</v>
       </c>
       <c r="N63" t="n">
-        <v>120.1211922281829</v>
+        <v>120.1135245244672</v>
       </c>
       <c r="O63" t="n">
         <v>120.1293136485987</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -8167,13 +8167,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>179.8264022311574</v>
+        <v>179.7761793382941</v>
       </c>
       <c r="N64" t="n">
-        <v>179.8765810899665</v>
+        <v>179.8357298363012</v>
       </c>
       <c r="O64" t="n">
-        <v>179.8644134072302</v>
+        <v>179.8134583744895</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -8291,10 +8291,10 @@
         <v>179.8333489834982</v>
       </c>
       <c r="N65" t="n">
-        <v>179.8828584816445</v>
+        <v>179.8781874789221</v>
       </c>
       <c r="O65" t="n">
-        <v>179.8629683931603</v>
+        <v>179.8644134072302</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -8409,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>119.8371541740823</v>
+        <v>119.7416749793385</v>
       </c>
       <c r="N66" t="n">
-        <v>119.879318367699</v>
+        <v>119.8100675455666</v>
       </c>
       <c r="O66" t="n">
-        <v>119.8596227464913</v>
+        <v>119.7710744683387</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -8530,13 +8530,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>119.8406642043797</v>
+        <v>119.7778338877562</v>
       </c>
       <c r="N67" t="n">
-        <v>119.8762536588405</v>
+        <v>119.8664277984373</v>
       </c>
       <c r="O67" t="n">
-        <v>119.8555987345828</v>
+        <v>119.8137714303737</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -8651,13 +8651,13 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>59.83133105485945</v>
+        <v>59.7794910793926</v>
       </c>
       <c r="N68" t="n">
-        <v>59.87526251611816</v>
+        <v>59.81331657214167</v>
       </c>
       <c r="O68" t="n">
-        <v>59.85450776261764</v>
+        <v>59.82783114768106</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P50V4to6</t>
+          <t>P5V4to6</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>59.83272541613204</v>
+        <v>59.77712785909616</v>
       </c>
       <c r="N69" t="n">
-        <v>59.8747093864579</v>
+        <v>59.78116731346624</v>
       </c>
       <c r="O69" t="n">
-        <v>59.85890711728496</v>
+        <v>59.7805307722453</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -8893,13 +8893,13 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>60.1749437188321</v>
+        <v>60.17674800689618</v>
       </c>
       <c r="N70" t="n">
-        <v>60.12285231227628</v>
+        <v>60.12072127984742</v>
       </c>
       <c r="O70" t="n">
-        <v>60.12488021992287</v>
+        <v>60.12183206553324</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>60.1772717198434</v>
+        <v>60.17484333288812</v>
       </c>
       <c r="N71" t="n">
-        <v>60.12092216050715</v>
+        <v>60.1200928643812</v>
       </c>
       <c r="O71" t="n">
-        <v>60.12415932297081</v>
+        <v>60.12402981205882</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -9135,13 +9135,13 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>120.1808638198017</v>
+        <v>120.1774391610244</v>
       </c>
       <c r="N72" t="n">
-        <v>120.1232331193652</v>
+        <v>120.1264114558398</v>
       </c>
       <c r="O72" t="n">
-        <v>120.1236477943944</v>
+        <v>120.1240108020794</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -9256,13 +9256,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>120.1813423668534</v>
+        <v>120.1803468325241</v>
       </c>
       <c r="N73" t="n">
-        <v>120.122388539028</v>
+        <v>120.1211922281829</v>
       </c>
       <c r="O73" t="n">
-        <v>120.1266963054963</v>
+        <v>120.1293136485987</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -9380,7 +9380,7 @@
         <v>179.8264022311574</v>
       </c>
       <c r="N74" t="n">
-        <v>179.8749953423899</v>
+        <v>179.8765810899665</v>
       </c>
       <c r="O74" t="n">
         <v>179.8644134072302</v>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -9498,13 +9498,13 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>179.828686513567</v>
+        <v>179.8333489834982</v>
       </c>
       <c r="N75" t="n">
-        <v>179.8781874789221</v>
+        <v>179.8828584816445</v>
       </c>
       <c r="O75" t="n">
-        <v>179.8587220019941</v>
+        <v>179.8629683931603</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -9619,13 +9619,13 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>119.8421603311883</v>
+        <v>119.8371541740823</v>
       </c>
       <c r="N76" t="n">
-        <v>119.8745488809633</v>
+        <v>119.879318367699</v>
       </c>
       <c r="O76" t="n">
-        <v>119.8605067163347</v>
+        <v>119.8596227464913</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -9740,13 +9740,13 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>119.8346937916713</v>
+        <v>119.8406642043797</v>
       </c>
       <c r="N77" t="n">
-        <v>119.8742277516479</v>
+        <v>119.8762536588405</v>
       </c>
       <c r="O77" t="n">
-        <v>119.8589515160253</v>
+        <v>119.8555987345828</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -9861,13 +9861,13 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>59.83306472539701</v>
+        <v>59.83133105485945</v>
       </c>
       <c r="N78" t="n">
-        <v>59.87290887827209</v>
+        <v>59.87526251611816</v>
       </c>
       <c r="O78" t="n">
-        <v>59.85812863130777</v>
+        <v>59.85450776261764</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P100V4to6</t>
+          <t>P50V4to6</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -9982,13 +9982,13 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>59.83421850070269</v>
+        <v>59.83272541613204</v>
       </c>
       <c r="N79" t="n">
-        <v>59.87747765343155</v>
+        <v>59.8747093864579</v>
       </c>
       <c r="O79" t="n">
-        <v>59.86070390572834</v>
+        <v>59.85890711728496</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -10103,13 +10103,13 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>60.17870085445461</v>
+        <v>60.1749437188321</v>
       </c>
       <c r="N80" t="n">
-        <v>60.12252126185391</v>
+        <v>60.12285231227628</v>
       </c>
       <c r="O80" t="n">
-        <v>60.1282831003605</v>
+        <v>60.12488021992287</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -10190,11 +10190,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -10224,13 +10224,13 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>120.1784737705682</v>
+        <v>60.1772717198434</v>
       </c>
       <c r="N81" t="n">
-        <v>120.1314143302737</v>
+        <v>60.12092216050715</v>
       </c>
       <c r="O81" t="n">
-        <v>120.1294010933018</v>
+        <v>60.12415932297081</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -10345,13 +10345,13 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>179.8264022311574</v>
+        <v>120.1808638198017</v>
       </c>
       <c r="N82" t="n">
-        <v>179.8781874789221</v>
+        <v>120.1232331193652</v>
       </c>
       <c r="O82" t="n">
-        <v>179.8644134072302</v>
+        <v>120.1236477943944</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -10466,13 +10466,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>119.8378470551249</v>
+        <v>120.1813423668534</v>
       </c>
       <c r="N83" t="n">
-        <v>119.8771225781557</v>
+        <v>120.122388539028</v>
       </c>
       <c r="O83" t="n">
-        <v>119.8557302011327</v>
+        <v>120.1266963054963</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -10553,11 +10553,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P150V4to6</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -10587,13 +10587,13 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>59.83668306797185</v>
+        <v>179.8264022311574</v>
       </c>
       <c r="N84" t="n">
-        <v>59.87547979255026</v>
+        <v>179.8749953423899</v>
       </c>
       <c r="O84" t="n">
-        <v>59.85474827457568</v>
+        <v>179.8644134072302</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -10674,11 +10674,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -10708,22 +10708,22 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>179.828686513567</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>179.8781874789221</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>179.8587220019941</v>
       </c>
       <c r="P85" t="n">
-        <v>0.9995188699999999</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.99973589</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0.99988896</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -10795,11 +10795,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>119.8421603311883</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>119.8745488809633</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>119.8605067163347</v>
       </c>
       <c r="P86" t="n">
-        <v>0.99949706</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.99971604</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>0.9998939</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -10916,11 +10916,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -10950,22 +10950,22 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>119.8346937916713</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>119.8742277516479</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>119.8589515160253</v>
       </c>
       <c r="P87" t="n">
-        <v>1.99919522</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.99959993</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>1.99979603</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -11037,11 +11037,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -11071,22 +11071,22 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>59.83306472539701</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>59.87290887827209</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>59.85812863130777</v>
       </c>
       <c r="P88" t="n">
-        <v>1.99919832</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.99962783</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>1.99977839</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -11158,11 +11158,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P100V4to6</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -11192,22 +11192,22 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>59.83421850070269</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>59.87747765343155</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>59.86070390572834</v>
       </c>
       <c r="P89" t="n">
-        <v>2.99956894</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.00005031</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>3.00057006</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -11279,11 +11279,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -11313,22 +11313,22 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>60.17870085445461</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>60.12252126185391</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>60.1282831003605</v>
       </c>
       <c r="P90" t="n">
-        <v>2.99958634</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.00002789</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>3.00055313</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -11400,11 +11400,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -11434,22 +11434,22 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>120.1784737705682</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>120.1314143302737</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>120.1294010933018</v>
       </c>
       <c r="P91" t="n">
-        <v>3.99971914</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>4.00044537</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>4.00098228</v>
+        <v>0</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
@@ -11521,11 +11521,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -11555,22 +11555,22 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>179.8264022311574</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>179.8781874789221</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>179.8644134072302</v>
       </c>
       <c r="P92" t="n">
-        <v>3.99969864</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>4.00044107</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>4.00094795</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -11642,11 +11642,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -11676,22 +11676,22 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>119.8378470551249</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>119.8771225781557</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>119.8557302011327</v>
       </c>
       <c r="P93" t="n">
-        <v>5.00007105</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>5.00080204</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>5.00133371</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -11763,11 +11763,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>I1to3</t>
+          <t>P150V4to6</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -11797,22 +11797,22 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>59.83668306797185</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>59.87547979255026</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>59.85474827457568</v>
       </c>
       <c r="P94" t="n">
-        <v>5.00003576</v>
+        <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>5.00075674</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>5.00127506</v>
+        <v>0</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -11927,13 +11927,13 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>6.00007534</v>
+        <v>0.9995188699999999</v>
       </c>
       <c r="Q95" t="n">
-        <v>6.00075912</v>
+        <v>0.99973589</v>
       </c>
       <c r="R95" t="n">
-        <v>6.00168037</v>
+        <v>0.99988896</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -12009,7 +12009,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -12048,13 +12048,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>6.00004435</v>
+        <v>0.99949706</v>
       </c>
       <c r="Q96" t="n">
-        <v>6.00069904</v>
+        <v>0.99971604</v>
       </c>
       <c r="R96" t="n">
-        <v>6.00163746</v>
+        <v>0.9998939</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -12126,11 +12126,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -12169,13 +12169,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>1.99919522</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>1.99959993</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1.99979603</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -12187,13 +12187,13 @@
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>59.79872494483521</v>
+        <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>59.85990224531007</v>
+        <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>59.82860921012453</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
         <v>0</v>
@@ -12247,11 +12247,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -12290,13 +12290,13 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>1.99919832</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>1.99962783</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1.99977839</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -12308,13 +12308,13 @@
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>59.83184002551857</v>
+        <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>59.87078903258268</v>
+        <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>59.86787085804214</v>
+        <v>0</v>
       </c>
       <c r="Y98" t="n">
         <v>0</v>
@@ -12368,11 +12368,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -12411,13 +12411,13 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>2.99956894</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>3.00005031</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>3.00057006</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -12429,13 +12429,13 @@
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>119.830109385705</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>119.8820990216108</v>
+        <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>119.8333160039881</v>
+        <v>0</v>
       </c>
       <c r="Y99" t="n">
         <v>0</v>
@@ -12489,11 +12489,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -12532,13 +12532,13 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>2.99958634</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>3.00002789</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>3.00055313</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
@@ -12550,13 +12550,13 @@
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>119.8162075242539</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>119.8524270739616</v>
+        <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>119.8589812456256</v>
+        <v>0</v>
       </c>
       <c r="Y100" t="n">
         <v>0</v>
@@ -12610,11 +12610,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -12653,13 +12653,13 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>3.99971914</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>4.00044537</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>4.00098228</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
@@ -12671,13 +12671,13 @@
         <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>179.8357298363012</v>
+        <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>179.8952881274137</v>
+        <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>179.8505908442238</v>
+        <v>0</v>
       </c>
       <c r="Y101" t="n">
         <v>0</v>
@@ -12731,11 +12731,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -12774,13 +12774,13 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>0</v>
+        <v>3.99969864</v>
       </c>
       <c r="Q102" t="n">
-        <v>0</v>
+        <v>4.00044107</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>4.00094795</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -12792,13 +12792,13 @@
         <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>179.8154043354019</v>
+        <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>179.855960605878</v>
+        <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>179.8615384587174</v>
+        <v>0</v>
       </c>
       <c r="Y102" t="n">
         <v>0</v>
@@ -12852,11 +12852,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -12895,13 +12895,13 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>5.00007105</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>5.00080204</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>5.00133371</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
@@ -12913,13 +12913,13 @@
         <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>120.1409153225183</v>
+        <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>120.0927645671386</v>
+        <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>120.1171847586737</v>
+        <v>0</v>
       </c>
       <c r="Y103" t="n">
         <v>0</v>
@@ -12973,11 +12973,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -13016,13 +13016,13 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>5.00003576</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>5.00075674</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>5.00127506</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
@@ -13034,13 +13034,13 @@
         <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>120.178367061458</v>
+        <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>120.1344034567558</v>
+        <v>0</v>
       </c>
       <c r="X104" t="n">
-        <v>120.1398016033471</v>
+        <v>0</v>
       </c>
       <c r="Y104" t="n">
         <v>0</v>
@@ -13094,11 +13094,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -13137,13 +13137,13 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>6.00007534</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>6.00075912</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>6.00168037</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
@@ -13155,13 +13155,13 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>60.14386416731546</v>
+        <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>60.11257998624755</v>
+        <v>0</v>
       </c>
       <c r="X105" t="n">
-        <v>60.10414194398085</v>
+        <v>0</v>
       </c>
       <c r="Y105" t="n">
         <v>0</v>
@@ -13215,11 +13215,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P1A1to3</t>
+          <t>I1to3</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -13258,13 +13258,13 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>6.00004435</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>6.00069904</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>6.00163746</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -13276,13 +13276,13 @@
         <v>0</v>
       </c>
       <c r="V106" t="n">
-        <v>60.18619687239118</v>
+        <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>60.13846131494373</v>
+        <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>60.15684752291325</v>
+        <v>0</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -13397,13 +13397,13 @@
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>59.83519797310408</v>
+        <v>59.79872494483521</v>
       </c>
       <c r="W107" t="n">
-        <v>59.87649793824244</v>
+        <v>59.85990224531007</v>
       </c>
       <c r="X107" t="n">
-        <v>59.88166269650554</v>
+        <v>59.82860921012453</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
@@ -13457,7 +13457,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -13518,13 +13518,13 @@
         <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>59.81126173089982</v>
+        <v>59.83184002551857</v>
       </c>
       <c r="W108" t="n">
-        <v>59.83554125003241</v>
+        <v>59.87078903258268</v>
       </c>
       <c r="X108" t="n">
-        <v>59.84026549391169</v>
+        <v>59.86787085804214</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -13639,13 +13639,13 @@
         <v>0</v>
       </c>
       <c r="V109" t="n">
-        <v>119.8270329782128</v>
+        <v>119.830109385705</v>
       </c>
       <c r="W109" t="n">
-        <v>119.868896891735</v>
+        <v>119.8820990216108</v>
       </c>
       <c r="X109" t="n">
-        <v>119.843077834609</v>
+        <v>119.8333160039881</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -13760,13 +13760,13 @@
         <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>119.8020857406348</v>
+        <v>119.8162075242539</v>
       </c>
       <c r="W110" t="n">
-        <v>119.8398035287808</v>
+        <v>119.8524270739616</v>
       </c>
       <c r="X110" t="n">
-        <v>119.8346779397395</v>
+        <v>119.8589812456256</v>
       </c>
       <c r="Y110" t="n">
         <v>0</v>
@@ -13820,7 +13820,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -13881,13 +13881,13 @@
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>179.8519150290359</v>
+        <v>179.8357298363012</v>
       </c>
       <c r="W111" t="n">
-        <v>179.8845521836918</v>
+        <v>179.8952881274137</v>
       </c>
       <c r="X111" t="n">
-        <v>179.8492782927315</v>
+        <v>179.8505908442238</v>
       </c>
       <c r="Y111" t="n">
         <v>0</v>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -14002,13 +14002,13 @@
         <v>0</v>
       </c>
       <c r="V112" t="n">
-        <v>179.8041857628028</v>
+        <v>179.8154043354019</v>
       </c>
       <c r="W112" t="n">
-        <v>179.8275405903219</v>
+        <v>179.855960605878</v>
       </c>
       <c r="X112" t="n">
-        <v>179.8381457072127</v>
+        <v>179.8615384587174</v>
       </c>
       <c r="Y112" t="n">
         <v>0</v>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -14123,13 +14123,13 @@
         <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>120.1772297218496</v>
+        <v>120.1409153225183</v>
       </c>
       <c r="W113" t="n">
-        <v>120.1345299931407</v>
+        <v>120.0927645671386</v>
       </c>
       <c r="X113" t="n">
-        <v>120.1739741929281</v>
+        <v>120.1171847586737</v>
       </c>
       <c r="Y113" t="n">
         <v>0</v>
@@ -14183,7 +14183,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -14244,13 +14244,13 @@
         <v>0</v>
       </c>
       <c r="V114" t="n">
-        <v>120.2074750964617</v>
+        <v>120.178367061458</v>
       </c>
       <c r="W114" t="n">
-        <v>120.1533950046619</v>
+        <v>120.1344034567558</v>
       </c>
       <c r="X114" t="n">
-        <v>120.1545327319416</v>
+        <v>120.1398016033471</v>
       </c>
       <c r="Y114" t="n">
         <v>0</v>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -14365,13 +14365,13 @@
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>60.17515571776409</v>
+        <v>60.14386416731546</v>
       </c>
       <c r="W115" t="n">
-        <v>60.14571261825959</v>
+        <v>60.11257998624755</v>
       </c>
       <c r="X115" t="n">
-        <v>60.15965087112453</v>
+        <v>60.10414194398085</v>
       </c>
       <c r="Y115" t="n">
         <v>0</v>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>P3A1to3</t>
+          <t>P1A1to3</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -14486,13 +14486,13 @@
         <v>0</v>
       </c>
       <c r="V116" t="n">
-        <v>60.20531244345604</v>
+        <v>60.18619687239118</v>
       </c>
       <c r="W116" t="n">
-        <v>60.17212891157128</v>
+        <v>60.13846131494373</v>
       </c>
       <c r="X116" t="n">
-        <v>60.16385376440186</v>
+        <v>60.15684752291325</v>
       </c>
       <c r="Y116" t="n">
         <v>0</v>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P6A1to3</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -14607,13 +14607,13 @@
         <v>0</v>
       </c>
       <c r="V117" t="n">
-        <v>59.82603376018682</v>
+        <v>59.83519797310408</v>
       </c>
       <c r="W117" t="n">
-        <v>59.85953056417921</v>
+        <v>59.87649793824244</v>
       </c>
       <c r="X117" t="n">
-        <v>59.85470918314031</v>
+        <v>59.88166269650554</v>
       </c>
       <c r="Y117" t="n">
         <v>0</v>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>P6A1to3</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -14728,13 +14728,13 @@
         <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>59.79452046843458</v>
+        <v>59.81126173089982</v>
       </c>
       <c r="W118" t="n">
-        <v>59.82225662115336</v>
+        <v>59.83554125003241</v>
       </c>
       <c r="X118" t="n">
-        <v>59.81237201334631</v>
+        <v>59.84026549391169</v>
       </c>
       <c r="Y118" t="n">
         <v>0</v>
@@ -14788,7 +14788,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>P6A1to3</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -14849,13 +14849,13 @@
         <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>119.80996321277</v>
+        <v>119.8270329782128</v>
       </c>
       <c r="W119" t="n">
-        <v>119.8448118003767</v>
+        <v>119.868896891735</v>
       </c>
       <c r="X119" t="n">
-        <v>119.8309296889696</v>
+        <v>119.843077834609</v>
       </c>
       <c r="Y119" t="n">
         <v>0</v>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P6A1to3</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -14970,13 +14970,13 @@
         <v>0</v>
       </c>
       <c r="V120" t="n">
-        <v>119.78897340321</v>
+        <v>119.8020857406348</v>
       </c>
       <c r="W120" t="n">
-        <v>119.815652810751</v>
+        <v>119.8398035287808</v>
       </c>
       <c r="X120" t="n">
-        <v>119.7961981810136</v>
+        <v>119.8346779397395</v>
       </c>
       <c r="Y120" t="n">
         <v>0</v>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>P6A1to3</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -15091,13 +15091,13 @@
         <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>179.7953328224468</v>
+        <v>179.8519150290359</v>
       </c>
       <c r="W121" t="n">
-        <v>179.8428799210076</v>
+        <v>179.8845521836918</v>
       </c>
       <c r="X121" t="n">
-        <v>179.8466868971983</v>
+        <v>179.8492782927315</v>
       </c>
       <c r="Y121" t="n">
         <v>0</v>
@@ -15151,7 +15151,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -15212,22 +15212,22 @@
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>179.8041857628028</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>179.8275405903219</v>
       </c>
       <c r="X122" t="n">
-        <v>0</v>
+        <v>179.8381457072127</v>
       </c>
       <c r="Y122" t="n">
-        <v>179.8219215485553</v>
+        <v>0</v>
       </c>
       <c r="Z122" t="n">
-        <v>179.8532511620864</v>
+        <v>0</v>
       </c>
       <c r="AA122" t="n">
-        <v>179.8031824372122</v>
+        <v>0</v>
       </c>
       <c r="AB122" t="n">
         <v>0</v>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -15333,22 +15333,22 @@
         <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>0</v>
+        <v>120.1772297218496</v>
       </c>
       <c r="W123" t="n">
-        <v>0</v>
+        <v>120.1345299931407</v>
       </c>
       <c r="X123" t="n">
-        <v>0</v>
+        <v>120.1739741929281</v>
       </c>
       <c r="Y123" t="n">
-        <v>120.2004569864932</v>
+        <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>120.1694118614585</v>
+        <v>0</v>
       </c>
       <c r="AA123" t="n">
-        <v>120.168851194388</v>
+        <v>0</v>
       </c>
       <c r="AB123" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -15454,22 +15454,22 @@
         <v>0</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>120.2074750964617</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>120.1533950046619</v>
       </c>
       <c r="X124" t="n">
-        <v>0</v>
+        <v>120.1545327319416</v>
       </c>
       <c r="Y124" t="n">
-        <v>120.1923217496602</v>
+        <v>0</v>
       </c>
       <c r="Z124" t="n">
-        <v>120.1587550937585</v>
+        <v>0</v>
       </c>
       <c r="AA124" t="n">
-        <v>120.2138412852383</v>
+        <v>0</v>
       </c>
       <c r="AB124" t="n">
         <v>0</v>
@@ -15514,7 +15514,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -15575,22 +15575,22 @@
         <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>0</v>
+        <v>60.17515571776409</v>
       </c>
       <c r="W125" t="n">
-        <v>0</v>
+        <v>60.14571261825959</v>
       </c>
       <c r="X125" t="n">
-        <v>0</v>
+        <v>60.15965087112453</v>
       </c>
       <c r="Y125" t="n">
-        <v>60.21184919673762</v>
+        <v>0</v>
       </c>
       <c r="Z125" t="n">
-        <v>60.15918849582982</v>
+        <v>0</v>
       </c>
       <c r="AA125" t="n">
-        <v>60.1736578465152</v>
+        <v>0</v>
       </c>
       <c r="AB125" t="n">
         <v>0</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A1to3</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -15696,22 +15696,22 @@
         <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>60.20531244345604</v>
       </c>
       <c r="W126" t="n">
-        <v>0</v>
+        <v>60.17212891157128</v>
       </c>
       <c r="X126" t="n">
-        <v>0</v>
+        <v>60.16385376440186</v>
       </c>
       <c r="Y126" t="n">
-        <v>60.16903464551833</v>
+        <v>0</v>
       </c>
       <c r="Z126" t="n">
-        <v>60.1566387879007</v>
+        <v>0</v>
       </c>
       <c r="AA126" t="n">
-        <v>60.15387102607664</v>
+        <v>0</v>
       </c>
       <c r="AB126" t="n">
         <v>0</v>
@@ -15756,11 +15756,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A1to3</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -15808,22 +15808,22 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>0.99975133</v>
+        <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>0.99984324</v>
+        <v>0</v>
       </c>
       <c r="U127" t="n">
-        <v>0.99998814</v>
+        <v>0</v>
       </c>
       <c r="V127" t="n">
-        <v>0</v>
+        <v>59.82603376018682</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
+        <v>59.85953056417921</v>
       </c>
       <c r="X127" t="n">
-        <v>0</v>
+        <v>59.85470918314031</v>
       </c>
       <c r="Y127" t="n">
         <v>0</v>
@@ -15877,11 +15877,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A1to3</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -15929,22 +15929,22 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>1.99942291</v>
+        <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.99966681</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
-        <v>1.99980593</v>
+        <v>0</v>
       </c>
       <c r="V128" t="n">
-        <v>0</v>
+        <v>59.79452046843458</v>
       </c>
       <c r="W128" t="n">
-        <v>0</v>
+        <v>59.82225662115336</v>
       </c>
       <c r="X128" t="n">
-        <v>0</v>
+        <v>59.81237201334631</v>
       </c>
       <c r="Y128" t="n">
         <v>0</v>
@@ -15998,11 +15998,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A1to3</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -16050,22 +16050,22 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>3.0005126</v>
+        <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>3.00565195</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
-        <v>2.9936657</v>
+        <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>0</v>
+        <v>119.80996321277</v>
       </c>
       <c r="W129" t="n">
-        <v>0</v>
+        <v>119.8448118003767</v>
       </c>
       <c r="X129" t="n">
-        <v>0</v>
+        <v>119.8309296889696</v>
       </c>
       <c r="Y129" t="n">
         <v>0</v>
@@ -16119,11 +16119,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A1to3</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -16171,22 +16171,22 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>3.00007391</v>
+        <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>3.00029159</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
-        <v>3.00079298</v>
+        <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>0</v>
+        <v>119.78897340321</v>
       </c>
       <c r="W130" t="n">
-        <v>0</v>
+        <v>119.815652810751</v>
       </c>
       <c r="X130" t="n">
-        <v>0</v>
+        <v>119.7961981810136</v>
       </c>
       <c r="Y130" t="n">
         <v>0</v>
@@ -16240,11 +16240,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A1to3</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -16292,22 +16292,22 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>4.0005579</v>
+        <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>4.00026703</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
-        <v>4.00094557</v>
+        <v>0</v>
       </c>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>179.7953328224468</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>179.8428799210076</v>
       </c>
       <c r="X131" t="n">
-        <v>0</v>
+        <v>179.8466868971983</v>
       </c>
       <c r="Y131" t="n">
         <v>0</v>
@@ -16361,11 +16361,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -16413,13 +16413,13 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>3.99999309</v>
+        <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>4.00032616</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
-        <v>4.00109005</v>
+        <v>0</v>
       </c>
       <c r="V132" t="n">
         <v>0</v>
@@ -16431,13 +16431,13 @@
         <v>0</v>
       </c>
       <c r="Y132" t="n">
-        <v>0</v>
+        <v>179.8219215485553</v>
       </c>
       <c r="Z132" t="n">
-        <v>0</v>
+        <v>179.8532511620864</v>
       </c>
       <c r="AA132" t="n">
-        <v>0</v>
+        <v>179.8031824372122</v>
       </c>
       <c r="AB132" t="n">
         <v>0</v>
@@ -16482,11 +16482,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -16534,13 +16534,13 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>5.00091982</v>
+        <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>5.00963974</v>
+        <v>0</v>
       </c>
       <c r="U133" t="n">
-        <v>4.98943138</v>
+        <v>0</v>
       </c>
       <c r="V133" t="n">
         <v>0</v>
@@ -16552,13 +16552,13 @@
         <v>0</v>
       </c>
       <c r="Y133" t="n">
-        <v>0</v>
+        <v>120.2004569864932</v>
       </c>
       <c r="Z133" t="n">
-        <v>0</v>
+        <v>120.1694118614585</v>
       </c>
       <c r="AA133" t="n">
-        <v>0</v>
+        <v>120.168851194388</v>
       </c>
       <c r="AB133" t="n">
         <v>0</v>
@@ -16603,11 +16603,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -16655,13 +16655,13 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>5.00024652</v>
+        <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>5.0006032</v>
+        <v>0</v>
       </c>
       <c r="U134" t="n">
-        <v>5.00130272</v>
+        <v>0</v>
       </c>
       <c r="V134" t="n">
         <v>0</v>
@@ -16673,13 +16673,13 @@
         <v>0</v>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>120.1923217496602</v>
       </c>
       <c r="Z134" t="n">
-        <v>0</v>
+        <v>120.1587550937585</v>
       </c>
       <c r="AA134" t="n">
-        <v>0</v>
+        <v>120.2138412852383</v>
       </c>
       <c r="AB134" t="n">
         <v>0</v>
@@ -16724,11 +16724,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -16776,13 +16776,13 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>6.00130987</v>
+        <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>6.00088215</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
-        <v>6.00153685</v>
+        <v>0</v>
       </c>
       <c r="V135" t="n">
         <v>0</v>
@@ -16794,13 +16794,13 @@
         <v>0</v>
       </c>
       <c r="Y135" t="n">
-        <v>0</v>
+        <v>60.21184919673762</v>
       </c>
       <c r="Z135" t="n">
-        <v>0</v>
+        <v>60.15918849582982</v>
       </c>
       <c r="AA135" t="n">
-        <v>0</v>
+        <v>60.1736578465152</v>
       </c>
       <c r="AB135" t="n">
         <v>0</v>
@@ -16845,11 +16845,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>I4to6</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -16897,13 +16897,13 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>6.00046825</v>
+        <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>6.00088596</v>
+        <v>0</v>
       </c>
       <c r="U136" t="n">
-        <v>6.00169897</v>
+        <v>0</v>
       </c>
       <c r="V136" t="n">
         <v>0</v>
@@ -16915,13 +16915,13 @@
         <v>0</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>60.16903464551833</v>
       </c>
       <c r="Z136" t="n">
-        <v>0</v>
+        <v>60.1566387879007</v>
       </c>
       <c r="AA136" t="n">
-        <v>0</v>
+        <v>60.15387102607664</v>
       </c>
       <c r="AB136" t="n">
         <v>0</v>
@@ -16966,11 +16966,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -17018,13 +17018,13 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>0</v>
+        <v>0.99975133</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>0.99984324</v>
       </c>
       <c r="U137" t="n">
-        <v>0</v>
+        <v>0.99998814</v>
       </c>
       <c r="V137" t="n">
         <v>0</v>
@@ -17036,13 +17036,13 @@
         <v>0</v>
       </c>
       <c r="Y137" t="n">
-        <v>59.86336523911655</v>
+        <v>0</v>
       </c>
       <c r="Z137" t="n">
-        <v>59.78666460381454</v>
+        <v>0</v>
       </c>
       <c r="AA137" t="n">
-        <v>59.82626638851242</v>
+        <v>0</v>
       </c>
       <c r="AB137" t="n">
         <v>0</v>
@@ -17087,11 +17087,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -17139,13 +17139,13 @@
         <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>0</v>
+        <v>1.99942291</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>1.99966681</v>
       </c>
       <c r="U138" t="n">
-        <v>0</v>
+        <v>1.99980593</v>
       </c>
       <c r="V138" t="n">
         <v>0</v>
@@ -17157,13 +17157,13 @@
         <v>0</v>
       </c>
       <c r="Y138" t="n">
-        <v>59.82023842031253</v>
+        <v>0</v>
       </c>
       <c r="Z138" t="n">
-        <v>59.76777985119417</v>
+        <v>0</v>
       </c>
       <c r="AA138" t="n">
-        <v>59.84268286206342</v>
+        <v>0</v>
       </c>
       <c r="AB138" t="n">
         <v>0</v>
@@ -17208,11 +17208,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -17260,13 +17260,13 @@
         <v>0</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>3.0005126</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>3.00565195</v>
       </c>
       <c r="U139" t="n">
-        <v>0</v>
+        <v>2.9936657</v>
       </c>
       <c r="V139" t="n">
         <v>0</v>
@@ -17278,13 +17278,13 @@
         <v>0</v>
       </c>
       <c r="Y139" t="n">
-        <v>119.8394475032072</v>
+        <v>0</v>
       </c>
       <c r="Z139" t="n">
-        <v>119.7716883420879</v>
+        <v>0</v>
       </c>
       <c r="AA139" t="n">
-        <v>119.8088492358343</v>
+        <v>0</v>
       </c>
       <c r="AB139" t="n">
         <v>0</v>
@@ -17329,11 +17329,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -17381,13 +17381,13 @@
         <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>3.00007391</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>3.00029159</v>
       </c>
       <c r="U140" t="n">
-        <v>0</v>
+        <v>3.00079298</v>
       </c>
       <c r="V140" t="n">
         <v>0</v>
@@ -17399,13 +17399,13 @@
         <v>0</v>
       </c>
       <c r="Y140" t="n">
-        <v>119.8218387008974</v>
+        <v>0</v>
       </c>
       <c r="Z140" t="n">
-        <v>119.7644745730694</v>
+        <v>0</v>
       </c>
       <c r="AA140" t="n">
-        <v>119.838394626098</v>
+        <v>0</v>
       </c>
       <c r="AB140" t="n">
         <v>0</v>
@@ -17450,11 +17450,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -17502,13 +17502,13 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>4.0005579</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>4.00026703</v>
       </c>
       <c r="U141" t="n">
-        <v>0</v>
+        <v>4.00094557</v>
       </c>
       <c r="V141" t="n">
         <v>0</v>
@@ -17520,13 +17520,13 @@
         <v>0</v>
       </c>
       <c r="Y141" t="n">
-        <v>179.7815233143684</v>
+        <v>0</v>
       </c>
       <c r="Z141" t="n">
-        <v>179.7368131162448</v>
+        <v>0</v>
       </c>
       <c r="AA141" t="n">
-        <v>179.7962974816749</v>
+        <v>0</v>
       </c>
       <c r="AB141" t="n">
         <v>0</v>
@@ -17571,11 +17571,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -17623,13 +17623,13 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>3.99999309</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>4.00032616</v>
       </c>
       <c r="U142" t="n">
-        <v>0</v>
+        <v>4.00109005</v>
       </c>
       <c r="V142" t="n">
         <v>0</v>
@@ -17641,13 +17641,13 @@
         <v>0</v>
       </c>
       <c r="Y142" t="n">
-        <v>179.8164744651307</v>
+        <v>0</v>
       </c>
       <c r="Z142" t="n">
-        <v>179.7815233143684</v>
+        <v>0</v>
       </c>
       <c r="AA142" t="n">
-        <v>179.8381457072127</v>
+        <v>0</v>
       </c>
       <c r="AB142" t="n">
         <v>0</v>
@@ -17692,11 +17692,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -17744,13 +17744,13 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>0</v>
+        <v>5.00091982</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>5.00963974</v>
       </c>
       <c r="U143" t="n">
-        <v>0</v>
+        <v>4.98943138</v>
       </c>
       <c r="V143" t="n">
         <v>0</v>
@@ -17762,13 +17762,13 @@
         <v>0</v>
       </c>
       <c r="Y143" t="n">
-        <v>120.2184023604794</v>
+        <v>0</v>
       </c>
       <c r="Z143" t="n">
-        <v>120.2572792111991</v>
+        <v>0</v>
       </c>
       <c r="AA143" t="n">
-        <v>120.1960671101109</v>
+        <v>0</v>
       </c>
       <c r="AB143" t="n">
         <v>0</v>
@@ -17813,11 +17813,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -17865,13 +17865,13 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>0</v>
+        <v>5.00024652</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>5.0006032</v>
       </c>
       <c r="U144" t="n">
-        <v>0</v>
+        <v>5.00130272</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
@@ -17883,13 +17883,13 @@
         <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>120.1818441146657</v>
+        <v>0</v>
       </c>
       <c r="Z144" t="n">
-        <v>120.2308401393969</v>
+        <v>0</v>
       </c>
       <c r="AA144" t="n">
-        <v>120.1711223796398</v>
+        <v>0</v>
       </c>
       <c r="AB144" t="n">
         <v>0</v>
@@ -17934,11 +17934,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -17986,13 +17986,13 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>6.00130987</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>6.00088215</v>
       </c>
       <c r="U145" t="n">
-        <v>0</v>
+        <v>6.00153685</v>
       </c>
       <c r="V145" t="n">
         <v>0</v>
@@ -18004,13 +18004,13 @@
         <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>60.19790435513761</v>
+        <v>0</v>
       </c>
       <c r="Z145" t="n">
-        <v>60.23466407913144</v>
+        <v>0</v>
       </c>
       <c r="AA145" t="n">
-        <v>60.20181446796637</v>
+        <v>0</v>
       </c>
       <c r="AB145" t="n">
         <v>0</v>
@@ -18055,11 +18055,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>P1A4to6</t>
+          <t>I4to6</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -18107,13 +18107,13 @@
         <v>0</v>
       </c>
       <c r="S146" t="n">
-        <v>0</v>
+        <v>6.00046825</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>6.00088596</v>
       </c>
       <c r="U146" t="n">
-        <v>0</v>
+        <v>6.00169897</v>
       </c>
       <c r="V146" t="n">
         <v>0</v>
@@ -18125,13 +18125,13 @@
         <v>0</v>
       </c>
       <c r="Y146" t="n">
-        <v>60.17735229082249</v>
+        <v>0</v>
       </c>
       <c r="Z146" t="n">
-        <v>60.21221692181495</v>
+        <v>0</v>
       </c>
       <c r="AA146" t="n">
-        <v>60.16509947248755</v>
+        <v>0</v>
       </c>
       <c r="AB146" t="n">
         <v>0</v>
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>P3A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -18246,13 +18246,13 @@
         <v>0</v>
       </c>
       <c r="Y147" t="n">
-        <v>59.80597131169636</v>
+        <v>59.86336523911655</v>
       </c>
       <c r="Z147" t="n">
-        <v>59.79868119056563</v>
+        <v>59.78666460381454</v>
       </c>
       <c r="AA147" t="n">
-        <v>59.80496370684155</v>
+        <v>59.82626638851242</v>
       </c>
       <c r="AB147" t="n">
         <v>0</v>
@@ -18297,11 +18297,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>P3A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -18367,13 +18367,13 @@
         <v>0</v>
       </c>
       <c r="Y148" t="n">
-        <v>119.8533010707773</v>
+        <v>59.82023842031253</v>
       </c>
       <c r="Z148" t="n">
-        <v>119.8238305240892</v>
+        <v>59.76777985119417</v>
       </c>
       <c r="AA148" t="n">
-        <v>119.8528756322181</v>
+        <v>59.84268286206342</v>
       </c>
       <c r="AB148" t="n">
         <v>0</v>
@@ -18418,11 +18418,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>P3A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -18488,13 +18488,13 @@
         <v>0</v>
       </c>
       <c r="Y149" t="n">
-        <v>179.8688439372913</v>
+        <v>119.8394475032072</v>
       </c>
       <c r="Z149" t="n">
-        <v>179.8082515568856</v>
+        <v>119.7716883420879</v>
       </c>
       <c r="AA149" t="n">
-        <v>179.8673506506018</v>
+        <v>119.8088492358343</v>
       </c>
       <c r="AB149" t="n">
         <v>0</v>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>P3A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -18609,13 +18609,13 @@
         <v>0</v>
       </c>
       <c r="Y150" t="n">
-        <v>120.1598650509564</v>
+        <v>119.8218387008974</v>
       </c>
       <c r="Z150" t="n">
-        <v>120.2152880229407</v>
+        <v>119.7644745730694</v>
       </c>
       <c r="AA150" t="n">
-        <v>120.1478543212391</v>
+        <v>119.838394626098</v>
       </c>
       <c r="AB150" t="n">
         <v>0</v>
@@ -18660,11 +18660,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>P3A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -18730,13 +18730,13 @@
         <v>0</v>
       </c>
       <c r="Y151" t="n">
-        <v>60.18227690351937</v>
+        <v>179.7815233143684</v>
       </c>
       <c r="Z151" t="n">
-        <v>60.2266891648784</v>
+        <v>179.7368131162448</v>
       </c>
       <c r="AA151" t="n">
-        <v>60.15609184725426</v>
+        <v>179.7962974816749</v>
       </c>
       <c r="AB151" t="n">
         <v>0</v>
@@ -18781,11 +18781,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -18851,13 +18851,13 @@
         <v>0</v>
       </c>
       <c r="Y152" t="n">
-        <v>59.80115526508789</v>
+        <v>179.8164744651307</v>
       </c>
       <c r="Z152" t="n">
-        <v>59.73888539173723</v>
+        <v>179.7815233143684</v>
       </c>
       <c r="AA152" t="n">
-        <v>59.80358088497238</v>
+        <v>179.8381457072127</v>
       </c>
       <c r="AB152" t="n">
         <v>0</v>
@@ -18902,11 +18902,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -18972,13 +18972,13 @@
         <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>59.81712520644866</v>
+        <v>120.2184023604794</v>
       </c>
       <c r="Z153" t="n">
-        <v>59.76181528211193</v>
+        <v>120.2572792111991</v>
       </c>
       <c r="AA153" t="n">
-        <v>59.82160112465787</v>
+        <v>120.1960671101109</v>
       </c>
       <c r="AB153" t="n">
         <v>0</v>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -19093,13 +19093,13 @@
         <v>0</v>
       </c>
       <c r="Y154" t="n">
-        <v>119.7845997049889</v>
+        <v>120.1818441146657</v>
       </c>
       <c r="Z154" t="n">
-        <v>119.7758786259833</v>
+        <v>120.2308401393969</v>
       </c>
       <c r="AA154" t="n">
-        <v>119.7854572648691</v>
+        <v>120.1711223796398</v>
       </c>
       <c r="AB154" t="n">
         <v>0</v>
@@ -19144,11 +19144,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -19214,13 +19214,13 @@
         <v>0</v>
       </c>
       <c r="Y155" t="n">
-        <v>119.7953068569992</v>
+        <v>60.19790435513761</v>
       </c>
       <c r="Z155" t="n">
-        <v>119.7459722339031</v>
+        <v>60.23466407913144</v>
       </c>
       <c r="AA155" t="n">
-        <v>119.8185637701977</v>
+        <v>60.20181446796637</v>
       </c>
       <c r="AB155" t="n">
         <v>0</v>
@@ -19265,11 +19265,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P1A4to6</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -19335,13 +19335,13 @@
         <v>0</v>
       </c>
       <c r="Y156" t="n">
-        <v>179.8124054491469</v>
+        <v>60.17735229082249</v>
       </c>
       <c r="Z156" t="n">
-        <v>179.7779463733823</v>
+        <v>60.21221692181495</v>
       </c>
       <c r="AA156" t="n">
-        <v>179.8051942558248</v>
+        <v>60.16509947248755</v>
       </c>
       <c r="AB156" t="n">
         <v>0</v>
@@ -19386,11 +19386,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A4to6</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -19456,13 +19456,13 @@
         <v>0</v>
       </c>
       <c r="Y157" t="n">
-        <v>179.7934170171984</v>
+        <v>59.80597131169636</v>
       </c>
       <c r="Z157" t="n">
-        <v>179.7610001813485</v>
+        <v>59.79868119056563</v>
       </c>
       <c r="AA157" t="n">
-        <v>179.8062079969482</v>
+        <v>59.80496370684155</v>
       </c>
       <c r="AB157" t="n">
         <v>0</v>
@@ -19507,7 +19507,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A4to6</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -19577,13 +19577,13 @@
         <v>0</v>
       </c>
       <c r="Y158" t="n">
-        <v>120.1822152903853</v>
+        <v>119.8533010707773</v>
       </c>
       <c r="Z158" t="n">
-        <v>120.2391490039789</v>
+        <v>119.8238305240892</v>
       </c>
       <c r="AA158" t="n">
-        <v>120.1722125936608</v>
+        <v>119.8528756322181</v>
       </c>
       <c r="AB158" t="n">
         <v>0</v>
@@ -19628,11 +19628,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A4to6</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -19698,13 +19698,13 @@
         <v>0</v>
       </c>
       <c r="Y159" t="n">
-        <v>120.2070879139294</v>
+        <v>179.8688439372913</v>
       </c>
       <c r="Z159" t="n">
-        <v>120.2524278010218</v>
+        <v>179.8082515568856</v>
       </c>
       <c r="AA159" t="n">
-        <v>120.2034051151343</v>
+        <v>179.8673506506018</v>
       </c>
       <c r="AB159" t="n">
         <v>0</v>
@@ -19749,11 +19749,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A4to6</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -19819,13 +19819,13 @@
         <v>0</v>
       </c>
       <c r="Y160" t="n">
-        <v>60.20127899886433</v>
+        <v>120.1598650509564</v>
       </c>
       <c r="Z160" t="n">
-        <v>60.25974837964565</v>
+        <v>120.2152880229407</v>
       </c>
       <c r="AA160" t="n">
-        <v>60.19306371161387</v>
+        <v>120.1478543212391</v>
       </c>
       <c r="AB160" t="n">
         <v>0</v>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>P6A4to6</t>
+          <t>P3A4to6</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -19940,13 +19940,13 @@
         <v>0</v>
       </c>
       <c r="Y161" t="n">
-        <v>60.21514877128107</v>
+        <v>60.18227690351937</v>
       </c>
       <c r="Z161" t="n">
-        <v>60.24253342063584</v>
+        <v>60.2266891648784</v>
       </c>
       <c r="AA161" t="n">
-        <v>60.22490888088733</v>
+        <v>60.15609184725426</v>
       </c>
       <c r="AB161" t="n">
         <v>0</v>
@@ -19991,11 +19991,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -20061,22 +20061,22 @@
         <v>0</v>
       </c>
       <c r="Y162" t="n">
-        <v>0</v>
+        <v>59.80115526508789</v>
       </c>
       <c r="Z162" t="n">
-        <v>0</v>
+        <v>59.73888539173723</v>
       </c>
       <c r="AA162" t="n">
-        <v>0</v>
+        <v>59.80358088497238</v>
       </c>
       <c r="AB162" t="n">
-        <v>49.99503326</v>
+        <v>0</v>
       </c>
       <c r="AC162" t="n">
-        <v>50.0216217</v>
+        <v>0</v>
       </c>
       <c r="AD162" t="n">
-        <v>49.98723984</v>
+        <v>0</v>
       </c>
       <c r="AE162" t="n">
         <v>0</v>
@@ -20112,11 +20112,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -20182,22 +20182,22 @@
         <v>0</v>
       </c>
       <c r="Y163" t="n">
-        <v>0</v>
+        <v>59.81712520644866</v>
       </c>
       <c r="Z163" t="n">
-        <v>0</v>
+        <v>59.76181528211193</v>
       </c>
       <c r="AA163" t="n">
-        <v>0</v>
+        <v>59.82160112465787</v>
       </c>
       <c r="AB163" t="n">
-        <v>49.99553299</v>
+        <v>0</v>
       </c>
       <c r="AC163" t="n">
-        <v>50.02226639</v>
+        <v>0</v>
       </c>
       <c r="AD163" t="n">
-        <v>49.9878006</v>
+        <v>0</v>
       </c>
       <c r="AE163" t="n">
         <v>0</v>
@@ -20233,11 +20233,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -20303,22 +20303,22 @@
         <v>0</v>
       </c>
       <c r="Y164" t="n">
-        <v>0</v>
+        <v>119.7845997049889</v>
       </c>
       <c r="Z164" t="n">
-        <v>0</v>
+        <v>119.7758786259833</v>
       </c>
       <c r="AA164" t="n">
-        <v>0</v>
+        <v>119.7854572648691</v>
       </c>
       <c r="AB164" t="n">
-        <v>99.98902893</v>
+        <v>0</v>
       </c>
       <c r="AC164" t="n">
-        <v>100.0402603</v>
+        <v>0</v>
       </c>
       <c r="AD164" t="n">
-        <v>99.97477722000001</v>
+        <v>0</v>
       </c>
       <c r="AE164" t="n">
         <v>0</v>
@@ -20354,11 +20354,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -20424,22 +20424,22 @@
         <v>0</v>
       </c>
       <c r="Y165" t="n">
-        <v>0</v>
+        <v>119.7953068569992</v>
       </c>
       <c r="Z165" t="n">
-        <v>0</v>
+        <v>119.7459722339031</v>
       </c>
       <c r="AA165" t="n">
-        <v>0</v>
+        <v>119.8185637701977</v>
       </c>
       <c r="AB165" t="n">
-        <v>99.98979187</v>
+        <v>0</v>
       </c>
       <c r="AC165" t="n">
-        <v>100.0406723</v>
+        <v>0</v>
       </c>
       <c r="AD165" t="n">
-        <v>99.97533417</v>
+        <v>0</v>
       </c>
       <c r="AE165" t="n">
         <v>0</v>
@@ -20475,11 +20475,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -20545,22 +20545,22 @@
         <v>0</v>
       </c>
       <c r="Y166" t="n">
-        <v>0</v>
+        <v>179.8124054491469</v>
       </c>
       <c r="Z166" t="n">
-        <v>0</v>
+        <v>179.7779463733823</v>
       </c>
       <c r="AA166" t="n">
-        <v>0</v>
+        <v>179.8051942558248</v>
       </c>
       <c r="AB166" t="n">
-        <v>149.9776764</v>
+        <v>0</v>
       </c>
       <c r="AC166" t="n">
-        <v>150.0582733</v>
+        <v>0</v>
       </c>
       <c r="AD166" t="n">
-        <v>149.9635773</v>
+        <v>0</v>
       </c>
       <c r="AE166" t="n">
         <v>0</v>
@@ -20596,11 +20596,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -20666,22 +20666,22 @@
         <v>0</v>
       </c>
       <c r="Y167" t="n">
-        <v>0</v>
+        <v>179.7934170171984</v>
       </c>
       <c r="Z167" t="n">
-        <v>0</v>
+        <v>179.7610001813485</v>
       </c>
       <c r="AA167" t="n">
-        <v>0</v>
+        <v>179.8062079969482</v>
       </c>
       <c r="AB167" t="n">
-        <v>149.9806519</v>
+        <v>0</v>
       </c>
       <c r="AC167" t="n">
-        <v>150.0612488</v>
+        <v>0</v>
       </c>
       <c r="AD167" t="n">
-        <v>149.9672394</v>
+        <v>0</v>
       </c>
       <c r="AE167" t="n">
         <v>0</v>
@@ -20717,11 +20717,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -20787,22 +20787,22 @@
         <v>0</v>
       </c>
       <c r="Y168" t="n">
-        <v>0</v>
+        <v>120.1822152903853</v>
       </c>
       <c r="Z168" t="n">
-        <v>0</v>
+        <v>120.2391490039789</v>
       </c>
       <c r="AA168" t="n">
-        <v>0</v>
+        <v>120.1722125936608</v>
       </c>
       <c r="AB168" t="n">
-        <v>199.9758148</v>
+        <v>0</v>
       </c>
       <c r="AC168" t="n">
-        <v>200.0841675</v>
+        <v>0</v>
       </c>
       <c r="AD168" t="n">
-        <v>199.9577332</v>
+        <v>0</v>
       </c>
       <c r="AE168" t="n">
         <v>0</v>
@@ -20838,11 +20838,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -20908,22 +20908,22 @@
         <v>0</v>
       </c>
       <c r="Y169" t="n">
-        <v>0</v>
+        <v>120.2070879139294</v>
       </c>
       <c r="Z169" t="n">
-        <v>0</v>
+        <v>120.2524278010218</v>
       </c>
       <c r="AA169" t="n">
-        <v>0</v>
+        <v>120.2034051151343</v>
       </c>
       <c r="AB169" t="n">
-        <v>199.981247</v>
+        <v>0</v>
       </c>
       <c r="AC169" t="n">
-        <v>200.0887146</v>
+        <v>0</v>
       </c>
       <c r="AD169" t="n">
-        <v>199.9644928</v>
+        <v>0</v>
       </c>
       <c r="AE169" t="n">
         <v>0</v>
@@ -20959,11 +20959,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -21029,22 +21029,22 @@
         <v>0</v>
       </c>
       <c r="Y170" t="n">
-        <v>0</v>
+        <v>60.20127899886433</v>
       </c>
       <c r="Z170" t="n">
-        <v>0</v>
+        <v>60.25974837964565</v>
       </c>
       <c r="AA170" t="n">
-        <v>0</v>
+        <v>60.19306371161387</v>
       </c>
       <c r="AB170" t="n">
-        <v>249.973877</v>
+        <v>0</v>
       </c>
       <c r="AC170" t="n">
-        <v>250.1103363</v>
+        <v>0</v>
       </c>
       <c r="AD170" t="n">
-        <v>249.9568787</v>
+        <v>0</v>
       </c>
       <c r="AE170" t="n">
         <v>0</v>
@@ -21080,11 +21080,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>VH1to3</t>
+          <t>P6A4to6</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -21150,22 +21150,22 @@
         <v>0</v>
       </c>
       <c r="Y171" t="n">
-        <v>0</v>
+        <v>60.21514877128107</v>
       </c>
       <c r="Z171" t="n">
-        <v>0</v>
+        <v>60.24253342063584</v>
       </c>
       <c r="AA171" t="n">
-        <v>0</v>
+        <v>60.22490888088733</v>
       </c>
       <c r="AB171" t="n">
-        <v>249.9839325</v>
+        <v>0</v>
       </c>
       <c r="AC171" t="n">
-        <v>250.1210632</v>
+        <v>0</v>
       </c>
       <c r="AD171" t="n">
-        <v>249.9703217</v>
+        <v>0</v>
       </c>
       <c r="AE171" t="n">
         <v>0</v>
@@ -21205,7 +21205,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -21280,13 +21280,13 @@
         <v>0</v>
       </c>
       <c r="AB172" t="n">
-        <v>299.9742127</v>
+        <v>49.99503326</v>
       </c>
       <c r="AC172" t="n">
-        <v>300.1345825</v>
+        <v>50.0216217</v>
       </c>
       <c r="AD172" t="n">
-        <v>299.9562073</v>
+        <v>49.98723984</v>
       </c>
       <c r="AE172" t="n">
         <v>0</v>
@@ -21326,7 +21326,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -21401,13 +21401,13 @@
         <v>0</v>
       </c>
       <c r="AB173" t="n">
-        <v>299.9938965</v>
+        <v>49.99553299</v>
       </c>
       <c r="AC173" t="n">
-        <v>300.1522827</v>
+        <v>50.02226639</v>
       </c>
       <c r="AD173" t="n">
-        <v>299.9781494</v>
+        <v>49.9878006</v>
       </c>
       <c r="AE173" t="n">
         <v>0</v>
@@ -21443,11 +21443,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -21522,22 +21522,22 @@
         <v>0</v>
       </c>
       <c r="AB174" t="n">
-        <v>0</v>
+        <v>99.98902893</v>
       </c>
       <c r="AC174" t="n">
-        <v>0</v>
+        <v>100.0402603</v>
       </c>
       <c r="AD174" t="n">
-        <v>0</v>
+        <v>99.97477722000001</v>
       </c>
       <c r="AE174" t="n">
-        <v>60.21434006209211</v>
+        <v>0</v>
       </c>
       <c r="AF174" t="n">
-        <v>60.21881593790843</v>
+        <v>0</v>
       </c>
       <c r="AG174" t="n">
-        <v>60.15546563616937</v>
+        <v>0</v>
       </c>
       <c r="AH174" t="n">
         <v>0</v>
@@ -21564,11 +21564,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -21643,22 +21643,22 @@
         <v>0</v>
       </c>
       <c r="AB175" t="n">
-        <v>0</v>
+        <v>99.98979187</v>
       </c>
       <c r="AC175" t="n">
-        <v>0</v>
+        <v>100.0406723</v>
       </c>
       <c r="AD175" t="n">
-        <v>0</v>
+        <v>99.97533417</v>
       </c>
       <c r="AE175" t="n">
-        <v>60.22896513629014</v>
+        <v>0</v>
       </c>
       <c r="AF175" t="n">
-        <v>60.26567585539543</v>
+        <v>0</v>
       </c>
       <c r="AG175" t="n">
-        <v>60.18208208973662</v>
+        <v>0</v>
       </c>
       <c r="AH175" t="n">
         <v>0</v>
@@ -21685,11 +21685,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -21764,22 +21764,22 @@
         <v>0</v>
       </c>
       <c r="AB176" t="n">
-        <v>0</v>
+        <v>149.9776764</v>
       </c>
       <c r="AC176" t="n">
-        <v>0</v>
+        <v>150.0582733</v>
       </c>
       <c r="AD176" t="n">
-        <v>0</v>
+        <v>149.9635773</v>
       </c>
       <c r="AE176" t="n">
-        <v>120.1625071306865</v>
+        <v>0</v>
       </c>
       <c r="AF176" t="n">
-        <v>120.2111069958162</v>
+        <v>0</v>
       </c>
       <c r="AG176" t="n">
-        <v>120.1482922902678</v>
+        <v>0</v>
       </c>
       <c r="AH176" t="n">
         <v>0</v>
@@ -21806,11 +21806,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -21885,22 +21885,22 @@
         <v>0</v>
       </c>
       <c r="AB177" t="n">
-        <v>0</v>
+        <v>149.9806519</v>
       </c>
       <c r="AC177" t="n">
-        <v>0</v>
+        <v>150.0612488</v>
       </c>
       <c r="AD177" t="n">
-        <v>0</v>
+        <v>149.9672394</v>
       </c>
       <c r="AE177" t="n">
-        <v>120.1765384431758</v>
+        <v>0</v>
       </c>
       <c r="AF177" t="n">
-        <v>120.2228403126439</v>
+        <v>0</v>
       </c>
       <c r="AG177" t="n">
-        <v>120.1712449866938</v>
+        <v>0</v>
       </c>
       <c r="AH177" t="n">
         <v>0</v>
@@ -21927,11 +21927,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -22006,22 +22006,22 @@
         <v>0</v>
       </c>
       <c r="AB178" t="n">
-        <v>0</v>
+        <v>199.9758148</v>
       </c>
       <c r="AC178" t="n">
-        <v>0</v>
+        <v>200.0841675</v>
       </c>
       <c r="AD178" t="n">
-        <v>0</v>
+        <v>199.9577332</v>
       </c>
       <c r="AE178" t="n">
-        <v>179.8310016687913</v>
+        <v>0</v>
       </c>
       <c r="AF178" t="n">
-        <v>179.7770611051297</v>
+        <v>0</v>
       </c>
       <c r="AG178" t="n">
-        <v>179.8573346226787</v>
+        <v>0</v>
       </c>
       <c r="AH178" t="n">
         <v>0</v>
@@ -22048,11 +22048,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -22127,22 +22127,22 @@
         <v>0</v>
       </c>
       <c r="AB179" t="n">
-        <v>0</v>
+        <v>199.981247</v>
       </c>
       <c r="AC179" t="n">
-        <v>0</v>
+        <v>200.0887146</v>
       </c>
       <c r="AD179" t="n">
-        <v>0</v>
+        <v>199.9644928</v>
       </c>
       <c r="AE179" t="n">
-        <v>179.8369332977458</v>
+        <v>0</v>
       </c>
       <c r="AF179" t="n">
-        <v>179.7521003615561</v>
+        <v>0</v>
       </c>
       <c r="AG179" t="n">
-        <v>179.8175508714256</v>
+        <v>0</v>
       </c>
       <c r="AH179" t="n">
         <v>0</v>
@@ -22169,11 +22169,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -22248,22 +22248,22 @@
         <v>0</v>
       </c>
       <c r="AB180" t="n">
-        <v>0</v>
+        <v>249.973877</v>
       </c>
       <c r="AC180" t="n">
-        <v>0</v>
+        <v>250.1103363</v>
       </c>
       <c r="AD180" t="n">
-        <v>0</v>
+        <v>249.9568787</v>
       </c>
       <c r="AE180" t="n">
-        <v>119.820850729054</v>
+        <v>0</v>
       </c>
       <c r="AF180" t="n">
-        <v>119.8004568386806</v>
+        <v>0</v>
       </c>
       <c r="AG180" t="n">
-        <v>119.8464579397373</v>
+        <v>0</v>
       </c>
       <c r="AH180" t="n">
         <v>0</v>
@@ -22290,11 +22290,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -22369,22 +22369,22 @@
         <v>0</v>
       </c>
       <c r="AB181" t="n">
-        <v>0</v>
+        <v>249.9839325</v>
       </c>
       <c r="AC181" t="n">
-        <v>0</v>
+        <v>250.1210632</v>
       </c>
       <c r="AD181" t="n">
-        <v>0</v>
+        <v>249.9703217</v>
       </c>
       <c r="AE181" t="n">
-        <v>119.8487627125512</v>
+        <v>0</v>
       </c>
       <c r="AF181" t="n">
-        <v>119.7931822366631</v>
+        <v>0</v>
       </c>
       <c r="AG181" t="n">
-        <v>119.8226965800915</v>
+        <v>0</v>
       </c>
       <c r="AH181" t="n">
         <v>0</v>
@@ -22411,11 +22411,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -22490,22 +22490,22 @@
         <v>0</v>
       </c>
       <c r="AB182" t="n">
-        <v>0</v>
+        <v>299.9742127</v>
       </c>
       <c r="AC182" t="n">
-        <v>0</v>
+        <v>300.1345825</v>
       </c>
       <c r="AD182" t="n">
-        <v>0</v>
+        <v>299.9562073</v>
       </c>
       <c r="AE182" t="n">
-        <v>59.74320700190984</v>
+        <v>0</v>
       </c>
       <c r="AF182" t="n">
-        <v>59.76279945430967</v>
+        <v>0</v>
       </c>
       <c r="AG182" t="n">
-        <v>59.84117797783311</v>
+        <v>0</v>
       </c>
       <c r="AH182" t="n">
         <v>0</v>
@@ -22532,11 +22532,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>P5HV</t>
+          <t>VH1to3</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -22611,22 +22611,22 @@
         <v>0</v>
       </c>
       <c r="AB183" t="n">
-        <v>0</v>
+        <v>299.9938965</v>
       </c>
       <c r="AC183" t="n">
-        <v>0</v>
+        <v>300.1522827</v>
       </c>
       <c r="AD183" t="n">
-        <v>0</v>
+        <v>299.9781494</v>
       </c>
       <c r="AE183" t="n">
-        <v>59.83429736250795</v>
+        <v>0</v>
       </c>
       <c r="AF183" t="n">
-        <v>59.8376983006747</v>
+        <v>0</v>
       </c>
       <c r="AG183" t="n">
-        <v>59.85605948510462</v>
+        <v>0</v>
       </c>
       <c r="AH183" t="n">
         <v>0</v>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -22741,13 +22741,13 @@
         <v>0</v>
       </c>
       <c r="AE184" t="n">
-        <v>60.15049874480767</v>
+        <v>60.21434006209211</v>
       </c>
       <c r="AF184" t="n">
-        <v>60.17151468921919</v>
+        <v>60.21881593790843</v>
       </c>
       <c r="AG184" t="n">
-        <v>60.06476487747231</v>
+        <v>60.15546563616937</v>
       </c>
       <c r="AH184" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -22862,13 +22862,13 @@
         <v>0</v>
       </c>
       <c r="AE185" t="n">
-        <v>60.15008917497747</v>
+        <v>60.22896513629014</v>
       </c>
       <c r="AF185" t="n">
-        <v>60.17206352679077</v>
+        <v>60.26567585539543</v>
       </c>
       <c r="AG185" t="n">
-        <v>60.06927126661022</v>
+        <v>60.18208208973662</v>
       </c>
       <c r="AH185" t="n">
         <v>0</v>
@@ -22895,7 +22895,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="AE186" t="n">
-        <v>120.1484665508003</v>
+        <v>120.1625071306865</v>
       </c>
       <c r="AF186" t="n">
-        <v>120.171829526205</v>
+        <v>120.2111069958162</v>
       </c>
       <c r="AG186" t="n">
-        <v>120.0661491102559</v>
+        <v>120.1482922902678</v>
       </c>
       <c r="AH186" t="n">
         <v>0</v>
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -23104,13 +23104,13 @@
         <v>0</v>
       </c>
       <c r="AE187" t="n">
-        <v>120.1531147162637</v>
+        <v>120.1765384431758</v>
       </c>
       <c r="AF187" t="n">
-        <v>120.1771349441415</v>
+        <v>120.2228403126439</v>
       </c>
       <c r="AG187" t="n">
-        <v>120.0672143325625</v>
+        <v>120.1712449866938</v>
       </c>
       <c r="AH187" t="n">
         <v>0</v>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -23225,13 +23225,13 @@
         <v>0</v>
       </c>
       <c r="AE188" t="n">
-        <v>179.8601231414296</v>
+        <v>179.8310016687913</v>
       </c>
       <c r="AF188" t="n">
-        <v>179.8208188841712</v>
+        <v>179.7770611051297</v>
       </c>
       <c r="AG188" t="n">
-        <v>179.9138655484234</v>
+        <v>179.8573346226787</v>
       </c>
       <c r="AH188" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -23346,13 +23346,13 @@
         <v>0</v>
       </c>
       <c r="AE189" t="n">
-        <v>179.8532511620864</v>
+        <v>179.8369332977458</v>
       </c>
       <c r="AF189" t="n">
-        <v>179.8230310833032</v>
+        <v>179.7521003615561</v>
       </c>
       <c r="AG189" t="n">
-        <v>179.921023211938</v>
+        <v>179.8175508714256</v>
       </c>
       <c r="AH189" t="n">
         <v>0</v>
@@ -23379,7 +23379,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="AE190" t="n">
-        <v>119.8684680830823</v>
+        <v>119.820850729054</v>
       </c>
       <c r="AF190" t="n">
-        <v>119.8303511168851</v>
+        <v>119.8004568386806</v>
       </c>
       <c r="AG190" t="n">
-        <v>119.9113323002143</v>
+        <v>119.8464579397373</v>
       </c>
       <c r="AH190" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="AE191" t="n">
-        <v>119.8717248285464</v>
+        <v>119.8487627125512</v>
       </c>
       <c r="AF191" t="n">
-        <v>119.8237869360216</v>
+        <v>119.7931822366631</v>
       </c>
       <c r="AG191" t="n">
-        <v>119.9142420861828</v>
+        <v>119.8226965800915</v>
       </c>
       <c r="AH191" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="AE192" t="n">
-        <v>59.86486978493901</v>
+        <v>59.74320700190984</v>
       </c>
       <c r="AF192" t="n">
-        <v>59.82378963081614</v>
+        <v>59.76279945430967</v>
       </c>
       <c r="AG192" t="n">
-        <v>59.91334483557172</v>
+        <v>59.84117797783311</v>
       </c>
       <c r="AH192" t="n">
         <v>0</v>
@@ -23742,7 +23742,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>P100HV</t>
+          <t>P5HV</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -23830,13 +23830,13 @@
         <v>0</v>
       </c>
       <c r="AE193" t="n">
-        <v>59.86347587800982</v>
+        <v>59.83429736250795</v>
       </c>
       <c r="AF193" t="n">
-        <v>59.82139168299787</v>
+        <v>59.8376983006747</v>
       </c>
       <c r="AG193" t="n">
-        <v>59.9126939167431</v>
+        <v>59.85605948510462</v>
       </c>
       <c r="AH193" t="n">
         <v>0</v>
@@ -23863,11 +23863,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -23951,22 +23951,22 @@
         <v>0</v>
       </c>
       <c r="AE194" t="n">
-        <v>0</v>
+        <v>60.15049874480767</v>
       </c>
       <c r="AF194" t="n">
-        <v>0</v>
+        <v>60.17151468921919</v>
       </c>
       <c r="AG194" t="n">
-        <v>0</v>
+        <v>60.06476487747231</v>
       </c>
       <c r="AH194" t="n">
-        <v>0.9995975499999999</v>
+        <v>0</v>
       </c>
       <c r="AI194" t="n">
-        <v>0.99983448</v>
+        <v>0</v>
       </c>
       <c r="AJ194" t="n">
-        <v>0.99996763</v>
+        <v>0</v>
       </c>
       <c r="AK194" t="n">
         <v>0</v>
@@ -23984,11 +23984,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -24072,22 +24072,22 @@
         <v>0</v>
       </c>
       <c r="AE195" t="n">
-        <v>0</v>
+        <v>60.15008917497747</v>
       </c>
       <c r="AF195" t="n">
-        <v>0</v>
+        <v>60.17206352679077</v>
       </c>
       <c r="AG195" t="n">
-        <v>0</v>
+        <v>60.06927126661022</v>
       </c>
       <c r="AH195" t="n">
-        <v>0.99959606</v>
+        <v>0</v>
       </c>
       <c r="AI195" t="n">
-        <v>0.99984652</v>
+        <v>0</v>
       </c>
       <c r="AJ195" t="n">
-        <v>0.99996686</v>
+        <v>0</v>
       </c>
       <c r="AK195" t="n">
         <v>0</v>
@@ -24105,11 +24105,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -24193,22 +24193,22 @@
         <v>0</v>
       </c>
       <c r="AE196" t="n">
-        <v>0</v>
+        <v>120.1484665508003</v>
       </c>
       <c r="AF196" t="n">
-        <v>0</v>
+        <v>120.171829526205</v>
       </c>
       <c r="AG196" t="n">
-        <v>0</v>
+        <v>120.0661491102559</v>
       </c>
       <c r="AH196" t="n">
-        <v>1.9992398</v>
+        <v>0</v>
       </c>
       <c r="AI196" t="n">
-        <v>1.99934185</v>
+        <v>0</v>
       </c>
       <c r="AJ196" t="n">
-        <v>1.9998033</v>
+        <v>0</v>
       </c>
       <c r="AK196" t="n">
         <v>0</v>
@@ -24226,11 +24226,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -24314,22 +24314,22 @@
         <v>0</v>
       </c>
       <c r="AE197" t="n">
-        <v>0</v>
+        <v>120.1531147162637</v>
       </c>
       <c r="AF197" t="n">
-        <v>0</v>
+        <v>120.1771349441415</v>
       </c>
       <c r="AG197" t="n">
-        <v>0</v>
+        <v>120.0672143325625</v>
       </c>
       <c r="AH197" t="n">
-        <v>1.99923086</v>
+        <v>0</v>
       </c>
       <c r="AI197" t="n">
-        <v>1.99933589</v>
+        <v>0</v>
       </c>
       <c r="AJ197" t="n">
-        <v>1.99979329</v>
+        <v>0</v>
       </c>
       <c r="AK197" t="n">
         <v>0</v>
@@ -24347,11 +24347,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -24435,22 +24435,22 @@
         <v>0</v>
       </c>
       <c r="AE198" t="n">
-        <v>0</v>
+        <v>179.8601231414296</v>
       </c>
       <c r="AF198" t="n">
-        <v>0</v>
+        <v>179.8208188841712</v>
       </c>
       <c r="AG198" t="n">
-        <v>0</v>
+        <v>179.9138655484234</v>
       </c>
       <c r="AH198" t="n">
-        <v>2.9995532</v>
+        <v>0</v>
       </c>
       <c r="AI198" t="n">
-        <v>3.0000217</v>
+        <v>0</v>
       </c>
       <c r="AJ198" t="n">
-        <v>3.00050497</v>
+        <v>0</v>
       </c>
       <c r="AK198" t="n">
         <v>0</v>
@@ -24468,11 +24468,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -24556,22 +24556,22 @@
         <v>0</v>
       </c>
       <c r="AE199" t="n">
-        <v>0</v>
+        <v>179.8532511620864</v>
       </c>
       <c r="AF199" t="n">
-        <v>0</v>
+        <v>179.8230310833032</v>
       </c>
       <c r="AG199" t="n">
-        <v>0</v>
+        <v>179.921023211938</v>
       </c>
       <c r="AH199" t="n">
-        <v>2.99956512</v>
+        <v>0</v>
       </c>
       <c r="AI199" t="n">
-        <v>3.00002217</v>
+        <v>0</v>
       </c>
       <c r="AJ199" t="n">
-        <v>3.00052619</v>
+        <v>0</v>
       </c>
       <c r="AK199" t="n">
         <v>0</v>
@@ -24589,11 +24589,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -24677,22 +24677,22 @@
         <v>0</v>
       </c>
       <c r="AE200" t="n">
-        <v>0</v>
+        <v>119.8684680830823</v>
       </c>
       <c r="AF200" t="n">
-        <v>0</v>
+        <v>119.8303511168851</v>
       </c>
       <c r="AG200" t="n">
-        <v>0</v>
+        <v>119.9113323002143</v>
       </c>
       <c r="AH200" t="n">
-        <v>3.99963331</v>
+        <v>0</v>
       </c>
       <c r="AI200" t="n">
-        <v>4.00015879</v>
+        <v>0</v>
       </c>
       <c r="AJ200" t="n">
-        <v>4.00059557</v>
+        <v>0</v>
       </c>
       <c r="AK200" t="n">
         <v>0</v>
@@ -24710,11 +24710,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -24798,22 +24798,22 @@
         <v>0</v>
       </c>
       <c r="AE201" t="n">
-        <v>0</v>
+        <v>119.8717248285464</v>
       </c>
       <c r="AF201" t="n">
-        <v>0</v>
+        <v>119.8237869360216</v>
       </c>
       <c r="AG201" t="n">
-        <v>0</v>
+        <v>119.9142420861828</v>
       </c>
       <c r="AH201" t="n">
-        <v>3.99963737</v>
+        <v>0</v>
       </c>
       <c r="AI201" t="n">
-        <v>4.00014925</v>
+        <v>0</v>
       </c>
       <c r="AJ201" t="n">
-        <v>4.00059748</v>
+        <v>0</v>
       </c>
       <c r="AK201" t="n">
         <v>0</v>
@@ -24831,11 +24831,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="AE202" t="n">
-        <v>0</v>
+        <v>59.86486978493901</v>
       </c>
       <c r="AF202" t="n">
-        <v>0</v>
+        <v>59.82378963081614</v>
       </c>
       <c r="AG202" t="n">
-        <v>0</v>
+        <v>59.91334483557172</v>
       </c>
       <c r="AH202" t="n">
-        <v>4.99973106</v>
+        <v>0</v>
       </c>
       <c r="AI202" t="n">
-        <v>5.00021744</v>
+        <v>0</v>
       </c>
       <c r="AJ202" t="n">
-        <v>5.00093365</v>
+        <v>0</v>
       </c>
       <c r="AK202" t="n">
         <v>0</v>
@@ -24952,11 +24952,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>IH1to3</t>
+          <t>P100HV</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -25040,22 +25040,22 @@
         <v>0</v>
       </c>
       <c r="AE203" t="n">
-        <v>0</v>
+        <v>59.86347587800982</v>
       </c>
       <c r="AF203" t="n">
-        <v>0</v>
+        <v>59.82139168299787</v>
       </c>
       <c r="AG203" t="n">
-        <v>0</v>
+        <v>59.9126939167431</v>
       </c>
       <c r="AH203" t="n">
-        <v>4.99975824</v>
+        <v>0</v>
       </c>
       <c r="AI203" t="n">
-        <v>5.00020981</v>
+        <v>0</v>
       </c>
       <c r="AJ203" t="n">
-        <v>5.00093699</v>
+        <v>0</v>
       </c>
       <c r="AK203" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -25170,13 +25170,13 @@
         <v>0</v>
       </c>
       <c r="AH204" t="n">
-        <v>5.99980402</v>
+        <v>0.9995975499999999</v>
       </c>
       <c r="AI204" t="n">
-        <v>6.00049162</v>
+        <v>0.99983448</v>
       </c>
       <c r="AJ204" t="n">
-        <v>6.0013051</v>
+        <v>0.99996763</v>
       </c>
       <c r="AK204" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -25291,13 +25291,13 @@
         <v>0</v>
       </c>
       <c r="AH205" t="n">
-        <v>5.99981022</v>
+        <v>0.99959606</v>
       </c>
       <c r="AI205" t="n">
-        <v>6.00050068</v>
+        <v>0.99984652</v>
       </c>
       <c r="AJ205" t="n">
-        <v>6.00127697</v>
+        <v>0.99996686</v>
       </c>
       <c r="AK205" t="n">
         <v>0</v>
@@ -25315,11 +25315,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>P1HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -25412,22 +25412,22 @@
         <v>0</v>
       </c>
       <c r="AH206" t="n">
-        <v>0</v>
+        <v>1.9992398</v>
       </c>
       <c r="AI206" t="n">
-        <v>0</v>
+        <v>1.99934185</v>
       </c>
       <c r="AJ206" t="n">
-        <v>0</v>
+        <v>1.9998033</v>
       </c>
       <c r="AK206" t="n">
-        <v>59.83882418946902</v>
+        <v>0</v>
       </c>
       <c r="AL206" t="n">
-        <v>59.78372404587272</v>
+        <v>0</v>
       </c>
       <c r="AM206" t="n">
-        <v>59.88854001035746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -25436,11 +25436,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>P1HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -25533,22 +25533,22 @@
         <v>0</v>
       </c>
       <c r="AH207" t="n">
-        <v>0</v>
+        <v>1.99923086</v>
       </c>
       <c r="AI207" t="n">
-        <v>0</v>
+        <v>1.99933589</v>
       </c>
       <c r="AJ207" t="n">
-        <v>0</v>
+        <v>1.99979329</v>
       </c>
       <c r="AK207" t="n">
-        <v>119.8390478841771</v>
+        <v>0</v>
       </c>
       <c r="AL207" t="n">
-        <v>119.7744778846061</v>
+        <v>0</v>
       </c>
       <c r="AM207" t="n">
-        <v>119.8743123288158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -25557,11 +25557,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>P1HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -25654,22 +25654,22 @@
         <v>0</v>
       </c>
       <c r="AH208" t="n">
-        <v>0</v>
+        <v>2.9995532</v>
       </c>
       <c r="AI208" t="n">
-        <v>0</v>
+        <v>3.0000217</v>
       </c>
       <c r="AJ208" t="n">
-        <v>0</v>
+        <v>3.00050497</v>
       </c>
       <c r="AK208" t="n">
-        <v>179.8041857628028</v>
+        <v>0</v>
       </c>
       <c r="AL208" t="n">
-        <v>179.8002026885378</v>
+        <v>0</v>
       </c>
       <c r="AM208" t="n">
-        <v>179.8644134072302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -25678,11 +25678,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>P1HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -25775,22 +25775,22 @@
         <v>0</v>
       </c>
       <c r="AH209" t="n">
-        <v>0</v>
+        <v>2.99956512</v>
       </c>
       <c r="AI209" t="n">
-        <v>0</v>
+        <v>3.00002217</v>
       </c>
       <c r="AJ209" t="n">
-        <v>0</v>
+        <v>3.00052619</v>
       </c>
       <c r="AK209" t="n">
-        <v>120.1820376561165</v>
+        <v>0</v>
       </c>
       <c r="AL209" t="n">
-        <v>120.2045115977165</v>
+        <v>0</v>
       </c>
       <c r="AM209" t="n">
-        <v>120.0719699054935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -25799,11 +25799,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>P1HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -25896,22 +25896,22 @@
         <v>0</v>
       </c>
       <c r="AH210" t="n">
-        <v>0</v>
+        <v>3.99963331</v>
       </c>
       <c r="AI210" t="n">
-        <v>0</v>
+        <v>4.00015879</v>
       </c>
       <c r="AJ210" t="n">
-        <v>0</v>
+        <v>4.00059557</v>
       </c>
       <c r="AK210" t="n">
-        <v>60.14342880523275</v>
+        <v>0</v>
       </c>
       <c r="AL210" t="n">
-        <v>60.18261502009872</v>
+        <v>0</v>
       </c>
       <c r="AM210" t="n">
-        <v>60.09615660348421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -25920,11 +25920,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -26017,22 +26017,22 @@
         <v>0</v>
       </c>
       <c r="AH211" t="n">
-        <v>0</v>
+        <v>3.99963737</v>
       </c>
       <c r="AI211" t="n">
-        <v>0</v>
+        <v>4.00014925</v>
       </c>
       <c r="AJ211" t="n">
-        <v>0</v>
+        <v>4.00059748</v>
       </c>
       <c r="AK211" t="n">
-        <v>59.82948999060603</v>
+        <v>0</v>
       </c>
       <c r="AL211" t="n">
-        <v>59.81036885587625</v>
+        <v>0</v>
       </c>
       <c r="AM211" t="n">
-        <v>59.89713813192594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -26041,11 +26041,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -26138,22 +26138,22 @@
         <v>0</v>
       </c>
       <c r="AH212" t="n">
-        <v>0</v>
+        <v>4.99973106</v>
       </c>
       <c r="AI212" t="n">
-        <v>0</v>
+        <v>5.00021744</v>
       </c>
       <c r="AJ212" t="n">
-        <v>0</v>
+        <v>5.00093365</v>
       </c>
       <c r="AK212" t="n">
-        <v>59.80823573340545</v>
+        <v>0</v>
       </c>
       <c r="AL212" t="n">
-        <v>59.79884758927511</v>
+        <v>0</v>
       </c>
       <c r="AM212" t="n">
-        <v>59.86496849718331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -26162,11 +26162,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -26259,22 +26259,22 @@
         <v>0</v>
       </c>
       <c r="AH213" t="n">
-        <v>0</v>
+        <v>4.99975824</v>
       </c>
       <c r="AI213" t="n">
-        <v>0</v>
+        <v>5.00020981</v>
       </c>
       <c r="AJ213" t="n">
-        <v>0</v>
+        <v>5.00093699</v>
       </c>
       <c r="AK213" t="n">
-        <v>119.8393352134009</v>
+        <v>0</v>
       </c>
       <c r="AL213" t="n">
-        <v>119.7633360212502</v>
+        <v>0</v>
       </c>
       <c r="AM213" t="n">
-        <v>119.8945930972103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -26283,11 +26283,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="AH214" t="n">
-        <v>0</v>
+        <v>5.99980402</v>
       </c>
       <c r="AI214" t="n">
-        <v>0</v>
+        <v>6.00049162</v>
       </c>
       <c r="AJ214" t="n">
-        <v>0</v>
+        <v>6.0013051</v>
       </c>
       <c r="AK214" t="n">
-        <v>119.8318569964216</v>
+        <v>0</v>
       </c>
       <c r="AL214" t="n">
-        <v>119.7936972119688</v>
+        <v>0</v>
       </c>
       <c r="AM214" t="n">
-        <v>119.8689642855583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -26404,11 +26404,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>IH1to3</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -26501,22 +26501,22 @@
         <v>0</v>
       </c>
       <c r="AH215" t="n">
-        <v>0</v>
+        <v>5.99981022</v>
       </c>
       <c r="AI215" t="n">
-        <v>0</v>
+        <v>6.00050068</v>
       </c>
       <c r="AJ215" t="n">
-        <v>0</v>
+        <v>6.00127697</v>
       </c>
       <c r="AK215" t="n">
-        <v>179.8230310833032</v>
+        <v>0</v>
       </c>
       <c r="AL215" t="n">
-        <v>179.7851598004071</v>
+        <v>0</v>
       </c>
       <c r="AM215" t="n">
-        <v>179.8897893506054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -26525,11 +26525,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>P1HA</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -26631,13 +26631,13 @@
         <v>0</v>
       </c>
       <c r="AK216" t="n">
-        <v>179.8454074881292</v>
+        <v>59.83882418946902</v>
       </c>
       <c r="AL216" t="n">
-        <v>179.8051942558248</v>
+        <v>59.78372404587272</v>
       </c>
       <c r="AM216" t="n">
-        <v>179.8971863857099</v>
+        <v>59.88854001035746</v>
       </c>
     </row>
     <row r="217">
@@ -26646,7 +26646,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>P1HA</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -26752,13 +26752,13 @@
         <v>0</v>
       </c>
       <c r="AK217" t="n">
-        <v>120.1654183378942</v>
+        <v>119.8390478841771</v>
       </c>
       <c r="AL217" t="n">
-        <v>120.1984184737963</v>
+        <v>119.7744778846061</v>
       </c>
       <c r="AM217" t="n">
-        <v>120.118014059682</v>
+        <v>119.8743123288158</v>
       </c>
     </row>
     <row r="218">
@@ -26767,11 +26767,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>P1HA</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -26873,13 +26873,13 @@
         <v>0</v>
       </c>
       <c r="AK218" t="n">
-        <v>120.1450185022674</v>
+        <v>179.8041857628028</v>
       </c>
       <c r="AL218" t="n">
-        <v>120.1860510756636</v>
+        <v>179.8002026885378</v>
       </c>
       <c r="AM218" t="n">
-        <v>120.0882258527718</v>
+        <v>179.8644134072302</v>
       </c>
     </row>
     <row r="219">
@@ -26888,11 +26888,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>P1HA</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -26994,13 +26994,13 @@
         <v>0</v>
       </c>
       <c r="AK219" t="n">
-        <v>60.17923974648905</v>
+        <v>120.1820376561165</v>
       </c>
       <c r="AL219" t="n">
-        <v>60.19243377024004</v>
+        <v>120.2045115977165</v>
       </c>
       <c r="AM219" t="n">
-        <v>60.09295620708964</v>
+        <v>120.0719699054935</v>
       </c>
     </row>
     <row r="220">
@@ -27009,7 +27009,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>P3HA</t>
+          <t>P1HA</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -27115,13 +27115,13 @@
         <v>0</v>
       </c>
       <c r="AK220" t="n">
-        <v>60.17179406178933</v>
+        <v>60.14342880523275</v>
       </c>
       <c r="AL220" t="n">
-        <v>60.20601492888506</v>
+        <v>60.18261502009872</v>
       </c>
       <c r="AM220" t="n">
-        <v>60.09443744422445</v>
+        <v>60.09615660348421</v>
       </c>
     </row>
     <row r="221">
@@ -27130,7 +27130,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>P6HA</t>
+          <t>P3HA</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -27236,13 +27236,13 @@
         <v>0</v>
       </c>
       <c r="AK221" t="n">
-        <v>59.82052276046981</v>
+        <v>59.82948999060603</v>
       </c>
       <c r="AL221" t="n">
-        <v>59.80070049613942</v>
+        <v>59.81036885587625</v>
       </c>
       <c r="AM221" t="n">
-        <v>59.88520374829563</v>
+        <v>59.89713813192594</v>
       </c>
     </row>
     <row r="222">
@@ -27251,11 +27251,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>P6HA</t>
+          <t>P3HA</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -27357,13 +27357,13 @@
         <v>0</v>
       </c>
       <c r="AK222" t="n">
-        <v>119.8375696379246</v>
+        <v>59.80823573340545</v>
       </c>
       <c r="AL222" t="n">
-        <v>119.7972393895653</v>
+        <v>59.79884758927511</v>
       </c>
       <c r="AM222" t="n">
-        <v>119.8933248500295</v>
+        <v>59.86496849718331</v>
       </c>
     </row>
     <row r="223">
@@ -27372,11 +27372,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>P6HA</t>
+          <t>P3HA</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -27478,13 +27478,13 @@
         <v>0</v>
       </c>
       <c r="AK223" t="n">
-        <v>179.8454074881292</v>
+        <v>119.8393352134009</v>
       </c>
       <c r="AL223" t="n">
-        <v>179.7726864726307</v>
+        <v>119.7633360212502</v>
       </c>
       <c r="AM223" t="n">
-        <v>179.9138655484234</v>
+        <v>119.8945930972103</v>
       </c>
     </row>
     <row r="224">
@@ -27493,7 +27493,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>P6HA</t>
+          <t>P3HA</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="AK224" t="n">
-        <v>120.1803428557094</v>
+        <v>119.8318569964216</v>
       </c>
       <c r="AL224" t="n">
-        <v>120.2192318504428</v>
+        <v>119.7936972119688</v>
       </c>
       <c r="AM224" t="n">
-        <v>120.1207934611216</v>
+        <v>119.8689642855583</v>
       </c>
     </row>
     <row r="225">
@@ -27614,118 +27614,1328 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>P3HA</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>180</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
+      <c r="S225" t="n">
+        <v>0</v>
+      </c>
+      <c r="T225" t="n">
+        <v>0</v>
+      </c>
+      <c r="U225" t="n">
+        <v>0</v>
+      </c>
+      <c r="V225" t="n">
+        <v>0</v>
+      </c>
+      <c r="W225" t="n">
+        <v>0</v>
+      </c>
+      <c r="X225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>179.8230310833032</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>179.7851598004071</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>179.8897893506054</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>P3HA</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>180</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>179.8454074881292</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>179.8051942558248</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>179.8971863857099</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>P3HA</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>120</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>0</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="n">
+        <v>0</v>
+      </c>
+      <c r="X227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>120.1654183378942</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>120.1984184737963</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>120.118014059682</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>P3HA</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>120</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="n">
+        <v>0</v>
+      </c>
+      <c r="X228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>120.1450185022674</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>120.1860510756636</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>120.0882258527718</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>P3HA</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>60</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>0</v>
+      </c>
+      <c r="T229" t="n">
+        <v>0</v>
+      </c>
+      <c r="U229" t="n">
+        <v>0</v>
+      </c>
+      <c r="V229" t="n">
+        <v>0</v>
+      </c>
+      <c r="W229" t="n">
+        <v>0</v>
+      </c>
+      <c r="X229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>60.17923974648905</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>60.19243377024004</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>60.09295620708964</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>P3HA</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>60</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" t="n">
+        <v>0</v>
+      </c>
+      <c r="T230" t="n">
+        <v>0</v>
+      </c>
+      <c r="U230" t="n">
+        <v>0</v>
+      </c>
+      <c r="V230" t="n">
+        <v>0</v>
+      </c>
+      <c r="W230" t="n">
+        <v>0</v>
+      </c>
+      <c r="X230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>60.17179406178933</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>60.20601492888506</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>60.09443744422445</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
           <t>P6HA</t>
         </is>
       </c>
-      <c r="C225" t="n">
+      <c r="C231" t="n">
         <v>60</v>
       </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0</v>
-      </c>
-      <c r="L225" t="n">
-        <v>0</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0</v>
-      </c>
-      <c r="P225" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q225" t="n">
-        <v>0</v>
-      </c>
-      <c r="R225" t="n">
-        <v>0</v>
-      </c>
-      <c r="S225" t="n">
-        <v>0</v>
-      </c>
-      <c r="T225" t="n">
-        <v>0</v>
-      </c>
-      <c r="U225" t="n">
-        <v>0</v>
-      </c>
-      <c r="V225" t="n">
-        <v>0</v>
-      </c>
-      <c r="W225" t="n">
-        <v>0</v>
-      </c>
-      <c r="X225" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y225" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK225" t="n">
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>0</v>
+      </c>
+      <c r="T231" t="n">
+        <v>0</v>
+      </c>
+      <c r="U231" t="n">
+        <v>0</v>
+      </c>
+      <c r="V231" t="n">
+        <v>0</v>
+      </c>
+      <c r="W231" t="n">
+        <v>0</v>
+      </c>
+      <c r="X231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>59.82052276046981</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>59.80070049613942</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>59.88520374829563</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>P6HA</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>120</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" t="n">
+        <v>0</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" t="n">
+        <v>0</v>
+      </c>
+      <c r="V232" t="n">
+        <v>0</v>
+      </c>
+      <c r="W232" t="n">
+        <v>0</v>
+      </c>
+      <c r="X232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>119.8375696379246</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>119.7972393895653</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>119.8933248500295</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>P6HA</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>180</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" t="n">
+        <v>0</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" t="n">
+        <v>0</v>
+      </c>
+      <c r="V233" t="n">
+        <v>0</v>
+      </c>
+      <c r="W233" t="n">
+        <v>0</v>
+      </c>
+      <c r="X233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>179.8454074881292</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>179.7726864726307</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>179.9138655484234</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>P6HA</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>120</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="n">
+        <v>0</v>
+      </c>
+      <c r="T234" t="n">
+        <v>0</v>
+      </c>
+      <c r="U234" t="n">
+        <v>0</v>
+      </c>
+      <c r="V234" t="n">
+        <v>0</v>
+      </c>
+      <c r="W234" t="n">
+        <v>0</v>
+      </c>
+      <c r="X234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>120.1803428557094</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>120.2192318504428</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>120.1207934611216</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>P6HA</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>60</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" t="n">
+        <v>0</v>
+      </c>
+      <c r="T235" t="n">
+        <v>0</v>
+      </c>
+      <c r="U235" t="n">
+        <v>0</v>
+      </c>
+      <c r="V235" t="n">
+        <v>0</v>
+      </c>
+      <c r="W235" t="n">
+        <v>0</v>
+      </c>
+      <c r="X235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK235" t="n">
         <v>60.14453933814004</v>
       </c>
-      <c r="AL225" t="n">
+      <c r="AL235" t="n">
         <v>60.18334936310569</v>
       </c>
-      <c r="AM225" t="n">
+      <c r="AM235" t="n">
         <v>60.09991141911276</v>
       </c>
     </row>
